--- a/RS-IBCF-2016/readme/ibcf.xlsx
+++ b/RS-IBCF-2016/readme/ibcf.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="exp1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -21,6 +21,32 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+  <si>
+    <t>neighbourhoodSize</t>
+  </si>
+  <si>
+    <t>rmse | other</t>
+  </si>
+  <si>
+    <t>coverage | other</t>
+  </si>
+  <si>
+    <t>rmse | SimpleAveragePredictor | CosineMetric</t>
+  </si>
+  <si>
+    <t>rmse | WeightedAveragePredictor | CosineMetric</t>
+  </si>
+  <si>
+    <t>coverage | SimpleAveragePredictor | CosineMetric</t>
+  </si>
+  <si>
+    <t>coverage | WeightedAveragePredictor | CosineMetric</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -68,6 +94,2657 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'exp1'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>rmse | WeightedAveragePredictor | CosineMetric</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'exp1'!$A$2:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>65.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>70.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>75.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>80.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>85.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>90.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>95.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>100.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'exp1'!$B$2:$B$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1.46165164927799</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.50237539103898</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.52600481918895</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.51839168176304</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.50440968244444</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.49682610884178</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.49870313383159</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.4957701550798</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.49929191922405</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.49650723479093</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.49581682513492</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.49030943024171</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.48513336999894</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.48120319699155</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.4831012145083</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.48338246959826</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.48065130735899</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.47884313992215</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.47675389606513</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.46817250203781</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'exp1'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>rmse | SimpleAveragePredictor | CosineMetric</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'exp1'!$E$2:$E$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>65.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>70.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>75.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>80.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>85.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>90.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>95.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>100.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'exp1'!$F$2:$F$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1.47981690236195</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.51699563305294</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.53093236570367</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.52499106183351</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.51126837655534</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.51021388931757</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5113840783284</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.50305014188533</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.50751528827463</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.50406169779167</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.50242469138382</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.49585061487526</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.48945772423375</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.48268373023305</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.48405438438378</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.48201432546553</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.48016274642208</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.47682613140543</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.47269042613181</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.46690403831572</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'exp1'!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>rmse | other</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'exp1'!$I$2:$I$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>65.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>70.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>75.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>80.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>85.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>90.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>95.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>100.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'exp1'!$J$2:$J$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-2126018688"/>
+        <c:axId val="-2127901760"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-2126018688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2127901760"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2127901760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2126018688"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'exp1'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>coverage | WeightedAveragePredictor | CosineMetric</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'exp1'!$A$2:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>65.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>70.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>75.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>80.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>85.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>90.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>95.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>100.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'exp1'!$C$2:$C$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>13.2962927483475</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18.5458377239199</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22.4829964555991</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25.5580036401954</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28.5180572851805</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30.7500718459622</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32.6659641728134</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>34.5818564996647</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>36.2486828240252</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>38.0017243030941</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>39.2662132388159</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>40.3965897116582</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>41.66107864738</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42.6190248108056</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43.5673915125969</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44.4103841364115</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>45.1575821438835</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45.8089855350129</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>46.4699683877766</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>46.9681003927579</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'exp1'!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>coverage | SimpleAveragePredictor | CosineMetric</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'exp1'!$E$2:$E$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>65.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>70.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>75.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>80.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>85.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>90.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>95.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>100.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'exp1'!$G$2:$G$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>14.848165533097</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20.9119647475811</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25.4047322540473</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28.8437589807452</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>31.9858223967813</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>34.5052208065906</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>36.5552255963214</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>38.6531276942235</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40.6743940990516</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42.7052399655139</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44.1804770571893</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45.5120222243509</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>47.0159977009292</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>48.1942714819427</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>49.4300220327617</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>50.4933422741641</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>51.4800268224925</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>52.3517578312098</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>53.1276942235846</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>53.7599386914455</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'exp1'!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>coverage | other</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'exp1'!$I$2:$I$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>65.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>70.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>75.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>80.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>85.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>90.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>95.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>100.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'exp1'!$K$2:$K$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-2123859360"/>
+        <c:axId val="-2126062608"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-2123859360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2126062608"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2126062608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2123859360"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>749300</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Graphique 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Graphique 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -333,12 +3010,522 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:G21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>1.4616516492779901</v>
+      </c>
+      <c r="C2">
+        <v>13.296292748347501</v>
+      </c>
+      <c r="E2">
+        <v>5</v>
+      </c>
+      <c r="F2">
+        <v>1.4798169023619501</v>
+      </c>
+      <c r="G2">
+        <v>14.848165533096999</v>
+      </c>
+      <c r="I2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>1.5023753910389801</v>
+      </c>
+      <c r="C3">
+        <v>18.545837723919899</v>
+      </c>
+      <c r="E3">
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <v>1.5169956330529399</v>
+      </c>
+      <c r="G3">
+        <v>20.911964747581099</v>
+      </c>
+      <c r="I3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>15</v>
+      </c>
+      <c r="B4">
+        <v>1.5260048191889499</v>
+      </c>
+      <c r="C4">
+        <v>22.4829964555991</v>
+      </c>
+      <c r="E4">
+        <v>15</v>
+      </c>
+      <c r="F4">
+        <v>1.53093236570367</v>
+      </c>
+      <c r="G4">
+        <v>25.4047322540473</v>
+      </c>
+      <c r="I4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>20</v>
+      </c>
+      <c r="B5">
+        <v>1.5183916817630401</v>
+      </c>
+      <c r="C5">
+        <v>25.558003640195398</v>
+      </c>
+      <c r="E5">
+        <v>20</v>
+      </c>
+      <c r="F5">
+        <v>1.5249910618335101</v>
+      </c>
+      <c r="G5">
+        <v>28.8437589807452</v>
+      </c>
+      <c r="I5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>25</v>
+      </c>
+      <c r="B6">
+        <v>1.50440968244444</v>
+      </c>
+      <c r="C6">
+        <v>28.5180572851805</v>
+      </c>
+      <c r="E6">
+        <v>25</v>
+      </c>
+      <c r="F6">
+        <v>1.5112683765553401</v>
+      </c>
+      <c r="G6">
+        <v>31.985822396781298</v>
+      </c>
+      <c r="I6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>30</v>
+      </c>
+      <c r="B7">
+        <v>1.49682610884178</v>
+      </c>
+      <c r="C7">
+        <v>30.7500718459622</v>
+      </c>
+      <c r="E7">
+        <v>30</v>
+      </c>
+      <c r="F7">
+        <v>1.5102138893175701</v>
+      </c>
+      <c r="G7">
+        <v>34.5052208065906</v>
+      </c>
+      <c r="I7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>35</v>
+      </c>
+      <c r="B8">
+        <v>1.4987031338315899</v>
+      </c>
+      <c r="C8">
+        <v>32.665964172813403</v>
+      </c>
+      <c r="E8">
+        <v>35</v>
+      </c>
+      <c r="F8">
+        <v>1.5113840783284</v>
+      </c>
+      <c r="G8">
+        <v>36.555225596321399</v>
+      </c>
+      <c r="I8">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>40</v>
+      </c>
+      <c r="B9">
+        <v>1.4957701550797999</v>
+      </c>
+      <c r="C9">
+        <v>34.581856499664703</v>
+      </c>
+      <c r="E9">
+        <v>40</v>
+      </c>
+      <c r="F9">
+        <v>1.5030501418853299</v>
+      </c>
+      <c r="G9">
+        <v>38.6531276942235</v>
+      </c>
+      <c r="I9">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>45</v>
+      </c>
+      <c r="B10">
+        <v>1.4992919192240499</v>
+      </c>
+      <c r="C10">
+        <v>36.248682824025202</v>
+      </c>
+      <c r="E10">
+        <v>45</v>
+      </c>
+      <c r="F10">
+        <v>1.5075152882746301</v>
+      </c>
+      <c r="G10">
+        <v>40.674394099051597</v>
+      </c>
+      <c r="I10">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>50</v>
+      </c>
+      <c r="B11">
+        <v>1.4965072347909301</v>
+      </c>
+      <c r="C11">
+        <v>38.0017243030941</v>
+      </c>
+      <c r="E11">
+        <v>50</v>
+      </c>
+      <c r="F11">
+        <v>1.5040616977916701</v>
+      </c>
+      <c r="G11">
+        <v>42.705239965513897</v>
+      </c>
+      <c r="I11">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>55</v>
+      </c>
+      <c r="B12">
+        <v>1.49581682513492</v>
+      </c>
+      <c r="C12">
+        <v>39.266213238815901</v>
+      </c>
+      <c r="E12">
+        <v>55</v>
+      </c>
+      <c r="F12">
+        <v>1.50242469138382</v>
+      </c>
+      <c r="G12">
+        <v>44.1804770571893</v>
+      </c>
+      <c r="I12">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>60</v>
+      </c>
+      <c r="B13">
+        <v>1.4903094302417099</v>
+      </c>
+      <c r="C13">
+        <v>40.396589711658201</v>
+      </c>
+      <c r="E13">
+        <v>60</v>
+      </c>
+      <c r="F13">
+        <v>1.4958506148752599</v>
+      </c>
+      <c r="G13">
+        <v>45.512022224350901</v>
+      </c>
+      <c r="I13">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>65</v>
+      </c>
+      <c r="B14">
+        <v>1.48513336999894</v>
+      </c>
+      <c r="C14">
+        <v>41.661078647380002</v>
+      </c>
+      <c r="E14">
+        <v>65</v>
+      </c>
+      <c r="F14">
+        <v>1.4894577242337499</v>
+      </c>
+      <c r="G14">
+        <v>47.015997700929198</v>
+      </c>
+      <c r="I14">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>70</v>
+      </c>
+      <c r="B15">
+        <v>1.48120319699155</v>
+      </c>
+      <c r="C15">
+        <v>42.619024810805598</v>
+      </c>
+      <c r="E15">
+        <v>70</v>
+      </c>
+      <c r="F15">
+        <v>1.48268373023305</v>
+      </c>
+      <c r="G15">
+        <v>48.1942714819427</v>
+      </c>
+      <c r="I15">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>75</v>
+      </c>
+      <c r="B16">
+        <v>1.4831012145083</v>
+      </c>
+      <c r="C16">
+        <v>43.567391512596899</v>
+      </c>
+      <c r="E16">
+        <v>75</v>
+      </c>
+      <c r="F16">
+        <v>1.4840543843837799</v>
+      </c>
+      <c r="G16">
+        <v>49.430022032761698</v>
+      </c>
+      <c r="I16">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>80</v>
+      </c>
+      <c r="B17">
+        <v>1.48338246959826</v>
+      </c>
+      <c r="C17">
+        <v>44.410384136411501</v>
+      </c>
+      <c r="E17">
+        <v>80</v>
+      </c>
+      <c r="F17">
+        <v>1.48201432546553</v>
+      </c>
+      <c r="G17">
+        <v>50.4933422741641</v>
+      </c>
+      <c r="I17">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>85</v>
+      </c>
+      <c r="B18">
+        <v>1.48065130735899</v>
+      </c>
+      <c r="C18">
+        <v>45.157582143883502</v>
+      </c>
+      <c r="E18">
+        <v>85</v>
+      </c>
+      <c r="F18">
+        <v>1.4801627464220799</v>
+      </c>
+      <c r="G18">
+        <v>51.480026822492498</v>
+      </c>
+      <c r="I18">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>90</v>
+      </c>
+      <c r="B19">
+        <v>1.47884313992215</v>
+      </c>
+      <c r="C19">
+        <v>45.808985535012901</v>
+      </c>
+      <c r="E19">
+        <v>90</v>
+      </c>
+      <c r="F19">
+        <v>1.4768261314054301</v>
+      </c>
+      <c r="G19">
+        <v>52.351757831209802</v>
+      </c>
+      <c r="I19">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>95</v>
+      </c>
+      <c r="B20">
+        <v>1.4767538960651301</v>
+      </c>
+      <c r="C20">
+        <v>46.469968387776603</v>
+      </c>
+      <c r="E20">
+        <v>95</v>
+      </c>
+      <c r="F20">
+        <v>1.4726904261318099</v>
+      </c>
+      <c r="G20">
+        <v>53.127694223584598</v>
+      </c>
+      <c r="I20">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>100</v>
+      </c>
+      <c r="B21">
+        <v>1.46817250203781</v>
+      </c>
+      <c r="C21">
+        <v>46.968100392757897</v>
+      </c>
+      <c r="E21">
+        <v>100</v>
+      </c>
+      <c r="F21">
+        <v>1.4669040383157199</v>
+      </c>
+      <c r="G21">
+        <v>53.759938691445498</v>
+      </c>
+      <c r="I21">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/RS-IBCF-2016/readme/ibcf.xlsx
+++ b/RS-IBCF-2016/readme/ibcf.xlsx
@@ -24,15 +24,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
     <t>neighbourhoodSize</t>
-  </si>
-  <si>
-    <t>rmse | other</t>
-  </si>
-  <si>
-    <t>coverage | other</t>
   </si>
   <si>
     <t>rmse | SimpleAveragePredictor | CosineMetric</t>
@@ -45,6 +39,15 @@
   </si>
   <si>
     <t>coverage | WeightedAveragePredictor | CosineMetric</t>
+  </si>
+  <si>
+    <t>after some point, the weighed give too much importance to people who are not so close to us</t>
+  </si>
+  <si>
+    <t>rmse | DeviationPredictor | CosineMetric</t>
+  </si>
+  <si>
+    <t>coverage | DeviationPredictor | CosineMetric</t>
   </si>
 </sst>
 </file>
@@ -512,7 +515,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>rmse | other</c:v>
+                  <c:v>rmse | DeviationPredictor | CosineMetric</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -616,6 +619,66 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1.43144526467454</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.44924540724373</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.45232438808613</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.42969456249236</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.40751010524418</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.39324885063327</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.39090165440371</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.38554649333011</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.3796405413488</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.37776213652019</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.37452123952763</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.3681397971255</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.36707923763983</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.36675833755766</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.36881642214206</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.37082807603896</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.36975702795623</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.36694625929612</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.36412963474917</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.3575516422382</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1249,7 +1312,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>coverage | other</c:v>
+                  <c:v>coverage | DeviationPredictor | CosineMetric</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1353,6 +1416,66 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>13.2962927483475</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18.5458377239199</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22.4829964555991</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25.5580036401954</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28.5180572851805</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30.7500718459622</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32.6659641728134</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>34.5818564996647</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>36.2486828240252</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>38.0017243030941</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>39.2662132388159</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>40.3965897116582</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>41.66107864738</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42.6190248108056</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43.5673915125969</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44.4103841364115</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>45.1575821438835</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45.8089855350129</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>46.4699683877766</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>46.9681003927579</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -3010,10 +3133,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:G21"/>
+      <selection activeCell="I1" sqref="I1:K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3039,28 +3162,28 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
         <v>4</v>
-      </c>
-      <c r="C1" t="s">
-        <v>6</v>
       </c>
       <c r="E1" t="s">
         <v>0</v>
       </c>
       <c r="F1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
         <v>3</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
       </c>
       <c r="I1" t="s">
         <v>0</v>
       </c>
       <c r="J1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -3085,6 +3208,12 @@
       <c r="I2">
         <v>5</v>
       </c>
+      <c r="J2">
+        <v>1.4314452646745399</v>
+      </c>
+      <c r="K2">
+        <v>13.296292748347501</v>
+      </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3">
@@ -3108,6 +3237,12 @@
       <c r="I3">
         <v>10</v>
       </c>
+      <c r="J3">
+        <v>1.44924540724373</v>
+      </c>
+      <c r="K3">
+        <v>18.545837723919899</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
@@ -3131,6 +3266,12 @@
       <c r="I4">
         <v>15</v>
       </c>
+      <c r="J4">
+        <v>1.4523243880861301</v>
+      </c>
+      <c r="K4">
+        <v>22.4829964555991</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
@@ -3154,6 +3295,12 @@
       <c r="I5">
         <v>20</v>
       </c>
+      <c r="J5">
+        <v>1.42969456249236</v>
+      </c>
+      <c r="K5">
+        <v>25.558003640195398</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
@@ -3177,6 +3324,12 @@
       <c r="I6">
         <v>25</v>
       </c>
+      <c r="J6">
+        <v>1.4075101052441801</v>
+      </c>
+      <c r="K6">
+        <v>28.5180572851805</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
@@ -3200,6 +3353,12 @@
       <c r="I7">
         <v>30</v>
       </c>
+      <c r="J7">
+        <v>1.3932488506332701</v>
+      </c>
+      <c r="K7">
+        <v>30.7500718459622</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8">
@@ -3223,6 +3382,12 @@
       <c r="I8">
         <v>35</v>
       </c>
+      <c r="J8">
+        <v>1.3909016544037101</v>
+      </c>
+      <c r="K8">
+        <v>32.665964172813403</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9">
@@ -3246,6 +3411,12 @@
       <c r="I9">
         <v>40</v>
       </c>
+      <c r="J9">
+        <v>1.38554649333011</v>
+      </c>
+      <c r="K9">
+        <v>34.581856499664703</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10">
@@ -3269,6 +3440,12 @@
       <c r="I10">
         <v>45</v>
       </c>
+      <c r="J10">
+        <v>1.3796405413488</v>
+      </c>
+      <c r="K10">
+        <v>36.248682824025202</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11">
@@ -3292,6 +3469,12 @@
       <c r="I11">
         <v>50</v>
       </c>
+      <c r="J11">
+        <v>1.37776213652019</v>
+      </c>
+      <c r="K11">
+        <v>38.0017243030941</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12">
@@ -3315,6 +3498,12 @@
       <c r="I12">
         <v>55</v>
       </c>
+      <c r="J12">
+        <v>1.3745212395276301</v>
+      </c>
+      <c r="K12">
+        <v>39.266213238815901</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13">
@@ -3338,6 +3527,12 @@
       <c r="I13">
         <v>60</v>
       </c>
+      <c r="J13">
+        <v>1.3681397971255</v>
+      </c>
+      <c r="K13">
+        <v>40.396589711658201</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14">
@@ -3361,6 +3556,12 @@
       <c r="I14">
         <v>65</v>
       </c>
+      <c r="J14">
+        <v>1.36707923763983</v>
+      </c>
+      <c r="K14">
+        <v>41.661078647380002</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15">
@@ -3384,6 +3585,12 @@
       <c r="I15">
         <v>70</v>
       </c>
+      <c r="J15">
+        <v>1.36675833755766</v>
+      </c>
+      <c r="K15">
+        <v>42.619024810805598</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16">
@@ -3407,8 +3614,14 @@
       <c r="I16">
         <v>75</v>
       </c>
+      <c r="J16">
+        <v>1.36881642214206</v>
+      </c>
+      <c r="K16">
+        <v>43.567391512596899</v>
+      </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>80</v>
       </c>
@@ -3430,8 +3643,14 @@
       <c r="I17">
         <v>80</v>
       </c>
+      <c r="J17">
+        <v>1.37082807603896</v>
+      </c>
+      <c r="K17">
+        <v>44.410384136411501</v>
+      </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>85</v>
       </c>
@@ -3453,8 +3672,14 @@
       <c r="I18">
         <v>85</v>
       </c>
+      <c r="J18">
+        <v>1.3697570279562301</v>
+      </c>
+      <c r="K18">
+        <v>45.157582143883502</v>
+      </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>90</v>
       </c>
@@ -3476,8 +3701,14 @@
       <c r="I19">
         <v>90</v>
       </c>
+      <c r="J19">
+        <v>1.3669462592961199</v>
+      </c>
+      <c r="K19">
+        <v>45.808985535012901</v>
+      </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>95</v>
       </c>
@@ -3499,8 +3730,14 @@
       <c r="I20">
         <v>95</v>
       </c>
+      <c r="J20">
+        <v>1.36412963474917</v>
+      </c>
+      <c r="K20">
+        <v>46.469968387776603</v>
+      </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>100</v>
       </c>
@@ -3521,6 +3758,17 @@
       </c>
       <c r="I21">
         <v>100</v>
+      </c>
+      <c r="J21">
+        <v>1.3575516422381999</v>
+      </c>
+      <c r="K21">
+        <v>46.968100392757897</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/RS-IBCF-2016/readme/ibcf.xlsx
+++ b/RS-IBCF-2016/readme/ibcf.xlsx
@@ -12,7 +12,8 @@
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="exp1" sheetId="1" r:id="rId1"/>
+    <sheet name="exp2" sheetId="2" r:id="rId1"/>
+    <sheet name="exp1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="14">
   <si>
     <t>neighbourhoodSize</t>
   </si>
@@ -49,18 +50,41 @@
   <si>
     <t>coverage | DeviationPredictor | CosineMetric</t>
   </si>
+  <si>
+    <t>SimilarityThresholdingNeighbourhood</t>
+  </si>
+  <si>
+    <t>the amount of similar items is so small</t>
+  </si>
+  <si>
+    <t>leading to an increase in RMSE</t>
+  </si>
+  <si>
+    <t>I can't explain the weird thing at the end</t>
+  </si>
+  <si>
+    <t>except</t>
+  </si>
+  <si>
+    <t>maybe the threshold is so high</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF141823"/>
+      <name val="Helvetica"/>
     </font>
   </fonts>
   <fills count="2">
@@ -83,8 +107,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -114,6 +139,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>RMSE vs similarity thresholding</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -155,11 +205,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'exp1'!$B$1</c:f>
+              <c:f>'exp2'!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>rmse | WeightedAveragePredictor | CosineMetric</c:v>
+                  <c:v>rmse | DeviationPredictor | CosineMetric</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -190,138 +240,126 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'exp1'!$A$2:$A$21</c:f>
+              <c:f>'exp2'!$A$2:$A$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>5.0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.0</c:v>
+                  <c:v>0.05</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15.0</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20.0</c:v>
+                  <c:v>0.15</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>25.0</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>30.0</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>35.0</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>40.0</c:v>
+                  <c:v>0.35</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>45.0</c:v>
+                  <c:v>0.399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>50.0</c:v>
+                  <c:v>0.449999999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>55.0</c:v>
+                  <c:v>0.499999999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>60.0</c:v>
+                  <c:v>0.549999999999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>65.0</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>70.0</c:v>
+                  <c:v>0.65</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>75.0</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>80.0</c:v>
+                  <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>85.0</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>90.0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>95.0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>100.0</c:v>
+                  <c:v>0.85</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'exp1'!$B$2:$B$21</c:f>
+              <c:f>'exp2'!$B$2:$B$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>1.46165164927799</c:v>
+                  <c:v>1.11627636100343</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.50237539103898</c:v>
+                  <c:v>1.11573838973738</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.52600481918895</c:v>
+                  <c:v>1.11477857861642</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.51839168176304</c:v>
+                  <c:v>1.1102470969872</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.50440968244444</c:v>
+                  <c:v>1.10819926880857</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.49682610884178</c:v>
+                  <c:v>1.09640319847345</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.49870313383159</c:v>
+                  <c:v>1.10046597959022</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.4957701550798</c:v>
+                  <c:v>1.10924756470926</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.49929191922405</c:v>
+                  <c:v>1.11056139563615</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.49650723479093</c:v>
+                  <c:v>1.10867737701658</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.49581682513492</c:v>
+                  <c:v>1.10565265606429</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.49030943024171</c:v>
+                  <c:v>1.14418167989576</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.48513336999894</c:v>
+                  <c:v>1.09460983375225</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.48120319699155</c:v>
+                  <c:v>1.12140122229647</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.4831012145083</c:v>
+                  <c:v>1.00405007236588</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.48338246959826</c:v>
+                  <c:v>1.26118489488107</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.48065130735899</c:v>
+                  <c:v>1.14994693613194</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.47884313992215</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.47675389606513</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1.46817250203781</c:v>
+                  <c:v>0.449796999836491</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -333,7 +371,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'exp1'!$F$1</c:f>
+              <c:f>'exp2'!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -368,139 +406,19 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'exp1'!$E$2:$E$21</c:f>
+              <c:f>'exp2'!$E$2:$E$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>25.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>30.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>35.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>40.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>45.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>50.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>55.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>60.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>65.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>70.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>75.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>80.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>85.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>90.0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>95.0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>100.0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'exp1'!$F$2:$F$21</c:f>
+              <c:f>'exp2'!$F$2:$F$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>1.47981690236195</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.51699563305294</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.53093236570367</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.52499106183351</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.51126837655534</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.51021388931757</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.5113840783284</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.50305014188533</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.50751528827463</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.50406169779167</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.50242469138382</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.49585061487526</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.48945772423375</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.48268373023305</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.48405438438378</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.48201432546553</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.48016274642208</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.47682613140543</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.47269042613181</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1.46690403831572</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -511,7 +429,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'exp1'!$J$1</c:f>
+              <c:f>'exp2'!$J$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -546,139 +464,19 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'exp1'!$I$2:$I$21</c:f>
+              <c:f>'exp2'!$I$2:$I$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>25.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>30.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>35.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>40.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>45.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>50.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>55.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>60.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>65.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>70.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>75.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>80.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>85.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>90.0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>95.0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>100.0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'exp1'!$J$2:$J$21</c:f>
+              <c:f>'exp2'!$J$2:$J$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>1.43144526467454</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.44924540724373</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.45232438808613</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.42969456249236</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.40751010524418</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.39324885063327</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.39090165440371</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.38554649333011</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.3796405413488</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.37776213652019</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.37452123952763</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.3681397971255</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.36707923763983</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.36675833755766</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.36881642214206</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.37082807603896</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.36975702795623</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.36694625929612</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.36412963474917</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1.3575516422382</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -692,11 +490,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2126018688"/>
-        <c:axId val="-2127901760"/>
+        <c:axId val="-2078661648"/>
+        <c:axId val="-2078761088"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2126018688"/>
+        <c:axId val="-2078661648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -753,12 +551,12 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2127901760"/>
+        <c:crossAx val="-2078761088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2127901760"/>
+        <c:axId val="-2078761088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -815,7 +613,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2126018688"/>
+        <c:crossAx val="-2078661648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -911,6 +709,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>Coverage vs similarity thesholding</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -952,11 +775,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'exp1'!$C$1</c:f>
+              <c:f>'exp2'!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>coverage | WeightedAveragePredictor | CosineMetric</c:v>
+                  <c:v>coverage | DeviationPredictor | CosineMetric</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -987,138 +810,126 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'exp1'!$A$2:$A$21</c:f>
+              <c:f>'exp2'!$A$2:$A$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>5.0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.0</c:v>
+                  <c:v>0.05</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15.0</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20.0</c:v>
+                  <c:v>0.15</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>25.0</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>30.0</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>35.0</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>40.0</c:v>
+                  <c:v>0.35</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>45.0</c:v>
+                  <c:v>0.399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>50.0</c:v>
+                  <c:v>0.449999999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>55.0</c:v>
+                  <c:v>0.499999999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>60.0</c:v>
+                  <c:v>0.549999999999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>65.0</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>70.0</c:v>
+                  <c:v>0.65</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>75.0</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>80.0</c:v>
+                  <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>85.0</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>90.0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>95.0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>100.0</c:v>
+                  <c:v>0.85</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'exp1'!$C$2:$C$21</c:f>
+              <c:f>'exp2'!$C$2:$C$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>13.2962927483475</c:v>
+                  <c:v>99.7126161509723</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18.5458377239199</c:v>
+                  <c:v>99.7126161509723</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>22.4829964555991</c:v>
+                  <c:v>99.65513938116671</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>25.5580036401954</c:v>
+                  <c:v>99.4348117635788</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>28.5180572851805</c:v>
+                  <c:v>98.2852763674681</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>30.7500718459622</c:v>
+                  <c:v>94.4534917137656</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>32.6659641728134</c:v>
+                  <c:v>88.7728709646517</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>34.5818564996647</c:v>
+                  <c:v>78.9922406360762</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>36.2486828240252</c:v>
+                  <c:v>63.0136986301369</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>38.0017243030941</c:v>
+                  <c:v>46.038892614235</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>39.2662132388159</c:v>
+                  <c:v>29.6005364498515</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>40.3965897116582</c:v>
+                  <c:v>15.9881214675735</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>41.66107864738</c:v>
+                  <c:v>4.50234696810039</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>42.6190248108056</c:v>
+                  <c:v>1.78177986397164</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>43.5673915125969</c:v>
+                  <c:v>0.680141776032187</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44.4103841364115</c:v>
+                  <c:v>0.0478973081712807</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>45.1575821438835</c:v>
+                  <c:v>0.0287383849027684</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>45.8089855350129</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>46.4699683877766</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>46.9681003927579</c:v>
+                  <c:v>0.0191589232685123</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1130,7 +941,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'exp1'!$G$1</c:f>
+              <c:f>'exp2'!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1165,139 +976,19 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'exp1'!$E$2:$E$21</c:f>
+              <c:f>'exp2'!$E$2:$E$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>25.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>30.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>35.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>40.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>45.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>50.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>55.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>60.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>65.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>70.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>75.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>80.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>85.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>90.0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>95.0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>100.0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'exp1'!$G$2:$G$21</c:f>
+              <c:f>'exp2'!$G$2:$G$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>14.848165533097</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>20.9119647475811</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>25.4047322540473</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>28.8437589807452</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>31.9858223967813</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>34.5052208065906</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>36.5552255963214</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>38.6531276942235</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>40.6743940990516</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>42.7052399655139</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>44.1804770571893</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>45.5120222243509</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>47.0159977009292</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>48.1942714819427</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>49.4300220327617</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>50.4933422741641</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>51.4800268224925</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>52.3517578312098</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>53.1276942235846</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>53.7599386914455</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1308,7 +999,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'exp1'!$K$1</c:f>
+              <c:f>'exp2'!$K$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1343,139 +1034,19 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'exp1'!$I$2:$I$21</c:f>
+              <c:f>'exp2'!$I$2:$I$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>25.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>30.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>35.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>40.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>45.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>50.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>55.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>60.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>65.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>70.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>75.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>80.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>85.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>90.0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>95.0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>100.0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'exp1'!$K$2:$K$21</c:f>
+              <c:f>'exp2'!$K$2:$K$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>13.2962927483475</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>18.5458377239199</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>22.4829964555991</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>25.5580036401954</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>28.5180572851805</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>30.7500718459622</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>32.6659641728134</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>34.5818564996647</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>36.2486828240252</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>38.0017243030941</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>39.2662132388159</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>40.3965897116582</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>41.66107864738</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>42.6190248108056</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>43.5673915125969</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>44.4103841364115</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>45.1575821438835</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>45.8089855350129</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>46.4699683877766</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>46.9681003927579</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1489,11 +1060,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2123859360"/>
-        <c:axId val="-2126062608"/>
+        <c:axId val="-2109621296"/>
+        <c:axId val="-2090047168"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2123859360"/>
+        <c:axId val="-2109621296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1550,12 +1121,12 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2126062608"/>
+        <c:crossAx val="-2090047168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2126062608"/>
+        <c:axId val="-2090047168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1612,7 +1183,1656 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2123859360"/>
+        <c:crossAx val="-2109621296"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>RMSE vs Neighbourhood</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-FR" baseline="0"/>
+              <a:t> size</a:t>
+            </a:r>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'exp1'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>rmse | WeightedAveragePredictor | CosineMetric</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'exp1'!$A$2:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>65.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>70.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>75.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>80.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>85.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>90.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>95.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>100.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'exp1'!$B$2:$B$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1.06971793216588</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0292749093563</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.01511504883072</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.01104088015778</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0054216837509</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.999199313607462</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.998155372553359</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.996520676394946</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.994946642376977</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.993301101931971</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.99628515065906</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.997021716683517</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.995934140035312</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.99423809949171</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.997570809446268</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.99861670562773</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.00116860888278</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.00211066143214</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.00264304417708</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.00470827260549</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'exp1'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>rmse | SimpleAveragePredictor | CosineMetric</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'exp1'!$E$2:$E$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>65.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>70.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>75.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>80.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>85.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>90.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>95.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>100.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'exp1'!$F$2:$F$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1.06122599559766</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.01567387231134</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.999159945361673</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.993158365948894</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.985812214000534</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.978549280916086</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.978366947826582</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.976914900236827</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.975660633413555</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.974466148949563</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.975951396731837</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.976107388190725</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.975639322672816</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.97424719014252</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.977398977646163</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.978054753878501</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.980179802380469</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.981102809106443</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.981561758485527</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.983009671837195</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'exp1'!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>rmse | DeviationPredictor | CosineMetric</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'exp1'!$I$2:$I$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>65.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>70.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>75.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>80.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>85.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>90.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>95.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>100.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'exp1'!$J$2:$J$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1.17576280706624</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.14064503460212</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.12533051881665</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.11925058220967</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.11129095131267</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.10494112560546</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.10254594701999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.09898148672779</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.09680403334553</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.09493301280298</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.09570927293174</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.09645872272311</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.09497314158678</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.09269670288217</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.09462614157081</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.09530289973945</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.09604126563783</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.09631928150344</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.09644240239655</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.09738167496368</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-2116122224"/>
+        <c:axId val="-2116118928"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-2116122224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2116118928"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2116118928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2116122224"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>Coverage vs Neighbourhood size</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'exp1'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>coverage | WeightedAveragePredictor | CosineMetric</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'exp1'!$A$2:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>65.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>70.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>75.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>80.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>85.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>90.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>95.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>100.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'exp1'!$C$2:$C$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>82.0864067439409</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>90.7941373694798</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>93.7637704760992</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>95.37312003065421</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>96.4268608104224</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>97.1165820480889</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>97.6242935147044</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>98.0745282115145</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>98.3906504454449</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>98.6397164479356</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>98.7834083724494</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>98.9654181435003</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>99.0995306063799</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>99.1953252227224</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>99.2623814541622</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>99.3677555321391</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>99.39649391704179</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>99.4539706868474</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>99.4922885333844</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>99.5210269182871</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'exp1'!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>coverage | SimpleAveragePredictor | CosineMetric</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'exp1'!$E$2:$E$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>65.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>70.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>75.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>80.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>85.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>90.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>95.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>100.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'exp1'!$G$2:$G$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>83.2455216016859</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>91.62755053166011</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>94.47265063703411</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>96.0245234217837</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>97.03994635501481</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>97.5955551298017</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>97.9787335951719</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>98.4098093687134</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>98.7067726793754</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>98.9079413736948</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>99.03247437494009</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>99.16658683781969</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>99.2815403774307</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>99.3677555321391</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>99.4443912252131</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>99.5210269182871</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>99.5401858415557</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>99.5976626113612</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>99.6359804578982</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>99.65513938116671</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'exp1'!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>coverage | DeviationPredictor | CosineMetric</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'exp1'!$I$2:$I$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>65.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>70.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>75.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>80.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>85.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>90.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>95.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>100.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'exp1'!$K$2:$K$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>82.0864067439409</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>90.7941373694798</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>93.7637704760992</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>95.37312003065421</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>96.4268608104224</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>97.1165820480889</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>97.6242935147044</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>98.0745282115145</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>98.3906504454449</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>98.6397164479356</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>98.7834083724494</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>98.9654181435003</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>99.0995306063799</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>99.1953252227224</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>99.2623814541622</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>99.3677555321391</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>99.39649391704179</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>99.4539706868474</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>99.4922885333844</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>99.5210269182871</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-2116073904"/>
+        <c:axId val="-2116070608"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-2116073904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2116070608"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2116070608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2116073904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1773,6 +2993,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2805,7 +4105,1108 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Graphique 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>622300</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Graphique 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3135,8 +5536,288 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:K21"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1.1162763610034301</v>
+      </c>
+      <c r="C2">
+        <v>99.712616150972295</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>0.05</v>
+      </c>
+      <c r="B3">
+        <v>1.11573838973738</v>
+      </c>
+      <c r="C3">
+        <v>99.712616150972295</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>0.1</v>
+      </c>
+      <c r="B4">
+        <v>1.1147785786164199</v>
+      </c>
+      <c r="C4">
+        <v>99.655139381166705</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>0.15</v>
+      </c>
+      <c r="B5">
+        <v>1.1102470969872</v>
+      </c>
+      <c r="C5">
+        <v>99.434811763578793</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>0.2</v>
+      </c>
+      <c r="B6">
+        <v>1.10819926880857</v>
+      </c>
+      <c r="C6">
+        <v>98.2852763674681</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>0.25</v>
+      </c>
+      <c r="B7">
+        <v>1.0964031984734499</v>
+      </c>
+      <c r="C7">
+        <v>94.453491713765601</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>0.3</v>
+      </c>
+      <c r="B8">
+        <v>1.1004659795902201</v>
+      </c>
+      <c r="C8">
+        <v>88.772870964651702</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>0.35</v>
+      </c>
+      <c r="B9">
+        <v>1.1092475647092599</v>
+      </c>
+      <c r="C9">
+        <v>78.992240636076204</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>0.39999999999999902</v>
+      </c>
+      <c r="B10">
+        <v>1.11056139563615</v>
+      </c>
+      <c r="C10">
+        <v>63.013698630136901</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>0.44999999999999901</v>
+      </c>
+      <c r="B11">
+        <v>1.1086773770165801</v>
+      </c>
+      <c r="C11">
+        <v>46.038892614235003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>0.499999999999999</v>
+      </c>
+      <c r="B12">
+        <v>1.1056526560642901</v>
+      </c>
+      <c r="C12">
+        <v>29.6005364498515</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>0.54999999999999905</v>
+      </c>
+      <c r="B13">
+        <v>1.14418167989576</v>
+      </c>
+      <c r="C13">
+        <v>15.9881214675735</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>0.6</v>
+      </c>
+      <c r="B14">
+        <v>1.0946098337522501</v>
+      </c>
+      <c r="C14">
+        <v>4.5023469681003903</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>0.65</v>
+      </c>
+      <c r="B15">
+        <v>1.12140122229647</v>
+      </c>
+      <c r="C15">
+        <v>1.78177986397164</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>0.7</v>
+      </c>
+      <c r="B16">
+        <v>1.0040500723658801</v>
+      </c>
+      <c r="C16">
+        <v>0.68014177603218695</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>0.75</v>
+      </c>
+      <c r="B17">
+        <v>1.26118489488107</v>
+      </c>
+      <c r="C17">
+        <v>4.7897308171280698E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>0.8</v>
+      </c>
+      <c r="B18">
+        <v>1.1499469361319401</v>
+      </c>
+      <c r="C18">
+        <v>2.87383849027684E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>0.85</v>
+      </c>
+      <c r="B19">
+        <v>0.44979699983649102</v>
+      </c>
+      <c r="C19">
+        <v>1.9158923268512301E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3191,28 +5872,28 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>1.4616516492779901</v>
+        <v>1.0697179321658801</v>
       </c>
       <c r="C2">
-        <v>13.296292748347501</v>
+        <v>82.086406743940898</v>
       </c>
       <c r="E2">
         <v>5</v>
       </c>
       <c r="F2">
-        <v>1.4798169023619501</v>
+        <v>1.06122599559766</v>
       </c>
       <c r="G2">
-        <v>14.848165533096999</v>
+        <v>83.245521601685894</v>
       </c>
       <c r="I2">
         <v>5</v>
       </c>
       <c r="J2">
-        <v>1.4314452646745399</v>
+        <v>1.17576280706624</v>
       </c>
       <c r="K2">
-        <v>13.296292748347501</v>
+        <v>82.086406743940898</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -3220,28 +5901,28 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>1.5023753910389801</v>
+        <v>1.0292749093563001</v>
       </c>
       <c r="C3">
-        <v>18.545837723919899</v>
+        <v>90.794137369479799</v>
       </c>
       <c r="E3">
         <v>10</v>
       </c>
       <c r="F3">
-        <v>1.5169956330529399</v>
+        <v>1.0156738723113401</v>
       </c>
       <c r="G3">
-        <v>20.911964747581099</v>
+        <v>91.627550531660106</v>
       </c>
       <c r="I3">
         <v>10</v>
       </c>
       <c r="J3">
-        <v>1.44924540724373</v>
+        <v>1.14064503460212</v>
       </c>
       <c r="K3">
-        <v>18.545837723919899</v>
+        <v>90.794137369479799</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -3249,28 +5930,28 @@
         <v>15</v>
       </c>
       <c r="B4">
-        <v>1.5260048191889499</v>
+        <v>1.0151150488307199</v>
       </c>
       <c r="C4">
-        <v>22.4829964555991</v>
+        <v>93.763770476099197</v>
       </c>
       <c r="E4">
         <v>15</v>
       </c>
       <c r="F4">
-        <v>1.53093236570367</v>
+        <v>0.99915994536167296</v>
       </c>
       <c r="G4">
-        <v>25.4047322540473</v>
+        <v>94.472650637034107</v>
       </c>
       <c r="I4">
         <v>15</v>
       </c>
       <c r="J4">
-        <v>1.4523243880861301</v>
+        <v>1.12533051881665</v>
       </c>
       <c r="K4">
-        <v>22.4829964555991</v>
+        <v>93.763770476099197</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -3278,28 +5959,28 @@
         <v>20</v>
       </c>
       <c r="B5">
-        <v>1.5183916817630401</v>
+        <v>1.0110408801577799</v>
       </c>
       <c r="C5">
-        <v>25.558003640195398</v>
+        <v>95.373120030654206</v>
       </c>
       <c r="E5">
         <v>20</v>
       </c>
       <c r="F5">
-        <v>1.5249910618335101</v>
+        <v>0.99315836594889395</v>
       </c>
       <c r="G5">
-        <v>28.8437589807452</v>
+        <v>96.024523421783698</v>
       </c>
       <c r="I5">
         <v>20</v>
       </c>
       <c r="J5">
-        <v>1.42969456249236</v>
+        <v>1.1192505822096701</v>
       </c>
       <c r="K5">
-        <v>25.558003640195398</v>
+        <v>95.373120030654206</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -3307,28 +5988,28 @@
         <v>25</v>
       </c>
       <c r="B6">
-        <v>1.50440968244444</v>
+        <v>1.0054216837509</v>
       </c>
       <c r="C6">
-        <v>28.5180572851805</v>
+        <v>96.426860810422397</v>
       </c>
       <c r="E6">
         <v>25</v>
       </c>
       <c r="F6">
-        <v>1.5112683765553401</v>
+        <v>0.98581221400053398</v>
       </c>
       <c r="G6">
-        <v>31.985822396781298</v>
+        <v>97.039946355014806</v>
       </c>
       <c r="I6">
         <v>25</v>
       </c>
       <c r="J6">
-        <v>1.4075101052441801</v>
+        <v>1.1112909513126701</v>
       </c>
       <c r="K6">
-        <v>28.5180572851805</v>
+        <v>96.426860810422397</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -3336,28 +6017,28 @@
         <v>30</v>
       </c>
       <c r="B7">
-        <v>1.49682610884178</v>
+        <v>0.99919931360746195</v>
       </c>
       <c r="C7">
-        <v>30.7500718459622</v>
+        <v>97.116582048088901</v>
       </c>
       <c r="E7">
         <v>30</v>
       </c>
       <c r="F7">
-        <v>1.5102138893175701</v>
+        <v>0.97854928091608595</v>
       </c>
       <c r="G7">
-        <v>34.5052208065906</v>
+        <v>97.595555129801696</v>
       </c>
       <c r="I7">
         <v>30</v>
       </c>
       <c r="J7">
-        <v>1.3932488506332701</v>
+        <v>1.10494112560546</v>
       </c>
       <c r="K7">
-        <v>30.7500718459622</v>
+        <v>97.116582048088901</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -3365,28 +6046,28 @@
         <v>35</v>
       </c>
       <c r="B8">
-        <v>1.4987031338315899</v>
+        <v>0.99815537255335895</v>
       </c>
       <c r="C8">
-        <v>32.665964172813403</v>
+        <v>97.624293514704405</v>
       </c>
       <c r="E8">
         <v>35</v>
       </c>
       <c r="F8">
-        <v>1.5113840783284</v>
+        <v>0.97836694782658196</v>
       </c>
       <c r="G8">
-        <v>36.555225596321399</v>
+        <v>97.978733595171903</v>
       </c>
       <c r="I8">
         <v>35</v>
       </c>
       <c r="J8">
-        <v>1.3909016544037101</v>
+        <v>1.1025459470199901</v>
       </c>
       <c r="K8">
-        <v>32.665964172813403</v>
+        <v>97.624293514704405</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -3394,28 +6075,28 @@
         <v>40</v>
       </c>
       <c r="B9">
-        <v>1.4957701550797999</v>
+        <v>0.99652067639494601</v>
       </c>
       <c r="C9">
-        <v>34.581856499664703</v>
+        <v>98.074528211514505</v>
       </c>
       <c r="E9">
         <v>40</v>
       </c>
       <c r="F9">
-        <v>1.5030501418853299</v>
+        <v>0.97691490023682703</v>
       </c>
       <c r="G9">
-        <v>38.6531276942235</v>
+        <v>98.409809368713397</v>
       </c>
       <c r="I9">
         <v>40</v>
       </c>
       <c r="J9">
-        <v>1.38554649333011</v>
+        <v>1.0989814867277901</v>
       </c>
       <c r="K9">
-        <v>34.581856499664703</v>
+        <v>98.074528211514505</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
@@ -3423,28 +6104,28 @@
         <v>45</v>
       </c>
       <c r="B10">
-        <v>1.4992919192240499</v>
+        <v>0.99494664237697705</v>
       </c>
       <c r="C10">
-        <v>36.248682824025202</v>
+        <v>98.390650445444905</v>
       </c>
       <c r="E10">
         <v>45</v>
       </c>
       <c r="F10">
-        <v>1.5075152882746301</v>
+        <v>0.97566063341355502</v>
       </c>
       <c r="G10">
-        <v>40.674394099051597</v>
+        <v>98.706772679375405</v>
       </c>
       <c r="I10">
         <v>45</v>
       </c>
       <c r="J10">
-        <v>1.3796405413488</v>
+        <v>1.09680403334553</v>
       </c>
       <c r="K10">
-        <v>36.248682824025202</v>
+        <v>98.390650445444905</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
@@ -3452,28 +6133,28 @@
         <v>50</v>
       </c>
       <c r="B11">
-        <v>1.4965072347909301</v>
+        <v>0.99330110193197096</v>
       </c>
       <c r="C11">
-        <v>38.0017243030941</v>
+        <v>98.639716447935598</v>
       </c>
       <c r="E11">
         <v>50</v>
       </c>
       <c r="F11">
-        <v>1.5040616977916701</v>
+        <v>0.97446614894956296</v>
       </c>
       <c r="G11">
-        <v>42.705239965513897</v>
+        <v>98.907941373694797</v>
       </c>
       <c r="I11">
         <v>50</v>
       </c>
       <c r="J11">
-        <v>1.37776213652019</v>
+        <v>1.0949330128029799</v>
       </c>
       <c r="K11">
-        <v>38.0017243030941</v>
+        <v>98.639716447935598</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
@@ -3481,28 +6162,28 @@
         <v>55</v>
       </c>
       <c r="B12">
-        <v>1.49581682513492</v>
+        <v>0.99628515065905998</v>
       </c>
       <c r="C12">
-        <v>39.266213238815901</v>
+        <v>98.783408372449401</v>
       </c>
       <c r="E12">
         <v>55</v>
       </c>
       <c r="F12">
-        <v>1.50242469138382</v>
+        <v>0.97595139673183695</v>
       </c>
       <c r="G12">
-        <v>44.1804770571893</v>
+        <v>99.032474374940094</v>
       </c>
       <c r="I12">
         <v>55</v>
       </c>
       <c r="J12">
-        <v>1.3745212395276301</v>
+        <v>1.0957092729317399</v>
       </c>
       <c r="K12">
-        <v>39.266213238815901</v>
+        <v>98.783408372449401</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
@@ -3510,28 +6191,28 @@
         <v>60</v>
       </c>
       <c r="B13">
-        <v>1.4903094302417099</v>
+        <v>0.99702171668351702</v>
       </c>
       <c r="C13">
-        <v>40.396589711658201</v>
+        <v>98.965418143500301</v>
       </c>
       <c r="E13">
         <v>60</v>
       </c>
       <c r="F13">
-        <v>1.4958506148752599</v>
+        <v>0.97610738819072496</v>
       </c>
       <c r="G13">
-        <v>45.512022224350901</v>
+        <v>99.166586837819693</v>
       </c>
       <c r="I13">
         <v>60</v>
       </c>
       <c r="J13">
-        <v>1.3681397971255</v>
+        <v>1.09645872272311</v>
       </c>
       <c r="K13">
-        <v>40.396589711658201</v>
+        <v>98.965418143500301</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -3539,28 +6220,28 @@
         <v>65</v>
       </c>
       <c r="B14">
-        <v>1.48513336999894</v>
+        <v>0.995934140035312</v>
       </c>
       <c r="C14">
-        <v>41.661078647380002</v>
+        <v>99.099530606379901</v>
       </c>
       <c r="E14">
         <v>65</v>
       </c>
       <c r="F14">
-        <v>1.4894577242337499</v>
+        <v>0.97563932267281595</v>
       </c>
       <c r="G14">
-        <v>47.015997700929198</v>
+        <v>99.281540377430701</v>
       </c>
       <c r="I14">
         <v>65</v>
       </c>
       <c r="J14">
-        <v>1.36707923763983</v>
+        <v>1.0949731415867801</v>
       </c>
       <c r="K14">
-        <v>41.661078647380002</v>
+        <v>99.099530606379901</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
@@ -3568,28 +6249,28 @@
         <v>70</v>
       </c>
       <c r="B15">
-        <v>1.48120319699155</v>
+        <v>0.99423809949171005</v>
       </c>
       <c r="C15">
-        <v>42.619024810805598</v>
+        <v>99.195325222722403</v>
       </c>
       <c r="E15">
         <v>70</v>
       </c>
       <c r="F15">
-        <v>1.48268373023305</v>
+        <v>0.97424719014252004</v>
       </c>
       <c r="G15">
-        <v>48.1942714819427</v>
+        <v>99.3677555321391</v>
       </c>
       <c r="I15">
         <v>70</v>
       </c>
       <c r="J15">
-        <v>1.36675833755766</v>
+        <v>1.0926967028821699</v>
       </c>
       <c r="K15">
-        <v>42.619024810805598</v>
+        <v>99.195325222722403</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
@@ -3597,28 +6278,28 @@
         <v>75</v>
       </c>
       <c r="B16">
-        <v>1.4831012145083</v>
+        <v>0.99757080944626797</v>
       </c>
       <c r="C16">
-        <v>43.567391512596899</v>
+        <v>99.262381454162195</v>
       </c>
       <c r="E16">
         <v>75</v>
       </c>
       <c r="F16">
-        <v>1.4840543843837799</v>
+        <v>0.97739897764616301</v>
       </c>
       <c r="G16">
-        <v>49.430022032761698</v>
+        <v>99.444391225213096</v>
       </c>
       <c r="I16">
         <v>75</v>
       </c>
       <c r="J16">
-        <v>1.36881642214206</v>
+        <v>1.0946261415708101</v>
       </c>
       <c r="K16">
-        <v>43.567391512596899</v>
+        <v>99.262381454162195</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
@@ -3626,28 +6307,28 @@
         <v>80</v>
       </c>
       <c r="B17">
-        <v>1.48338246959826</v>
+        <v>0.99861670562772997</v>
       </c>
       <c r="C17">
-        <v>44.410384136411501</v>
+        <v>99.3677555321391</v>
       </c>
       <c r="E17">
         <v>80</v>
       </c>
       <c r="F17">
-        <v>1.48201432546553</v>
+        <v>0.97805475387850105</v>
       </c>
       <c r="G17">
-        <v>50.4933422741641</v>
+        <v>99.521026918287106</v>
       </c>
       <c r="I17">
         <v>80</v>
       </c>
       <c r="J17">
-        <v>1.37082807603896</v>
+        <v>1.0953028997394501</v>
       </c>
       <c r="K17">
-        <v>44.410384136411501</v>
+        <v>99.3677555321391</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
@@ -3655,28 +6336,28 @@
         <v>85</v>
       </c>
       <c r="B18">
-        <v>1.48065130735899</v>
+        <v>1.00116860888278</v>
       </c>
       <c r="C18">
-        <v>45.157582143883502</v>
+        <v>99.396493917041795</v>
       </c>
       <c r="E18">
         <v>85</v>
       </c>
       <c r="F18">
-        <v>1.4801627464220799</v>
+        <v>0.98017980238046898</v>
       </c>
       <c r="G18">
-        <v>51.480026822492498</v>
+        <v>99.540185841555697</v>
       </c>
       <c r="I18">
         <v>85</v>
       </c>
       <c r="J18">
-        <v>1.3697570279562301</v>
+        <v>1.09604126563783</v>
       </c>
       <c r="K18">
-        <v>45.157582143883502</v>
+        <v>99.396493917041795</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
@@ -3684,28 +6365,28 @@
         <v>90</v>
       </c>
       <c r="B19">
-        <v>1.47884313992215</v>
+        <v>1.00211066143214</v>
       </c>
       <c r="C19">
-        <v>45.808985535012901</v>
+        <v>99.453970686847398</v>
       </c>
       <c r="E19">
         <v>90</v>
       </c>
       <c r="F19">
-        <v>1.4768261314054301</v>
+        <v>0.98110280910644299</v>
       </c>
       <c r="G19">
-        <v>52.351757831209802</v>
+        <v>99.597662611361201</v>
       </c>
       <c r="I19">
         <v>90</v>
       </c>
       <c r="J19">
-        <v>1.3669462592961199</v>
+        <v>1.0963192815034399</v>
       </c>
       <c r="K19">
-        <v>45.808985535012901</v>
+        <v>99.453970686847398</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
@@ -3713,28 +6394,28 @@
         <v>95</v>
       </c>
       <c r="B20">
-        <v>1.4767538960651301</v>
+        <v>1.0026430441770799</v>
       </c>
       <c r="C20">
-        <v>46.469968387776603</v>
+        <v>99.492288533384396</v>
       </c>
       <c r="E20">
         <v>95</v>
       </c>
       <c r="F20">
-        <v>1.4726904261318099</v>
+        <v>0.98156175848552696</v>
       </c>
       <c r="G20">
-        <v>53.127694223584598</v>
+        <v>99.635980457898199</v>
       </c>
       <c r="I20">
         <v>95</v>
       </c>
       <c r="J20">
-        <v>1.36412963474917</v>
+        <v>1.09644240239655</v>
       </c>
       <c r="K20">
-        <v>46.469968387776603</v>
+        <v>99.492288533384396</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
@@ -3742,28 +6423,28 @@
         <v>100</v>
       </c>
       <c r="B21">
-        <v>1.46817250203781</v>
+        <v>1.0047082726054899</v>
       </c>
       <c r="C21">
-        <v>46.968100392757897</v>
+        <v>99.521026918287106</v>
       </c>
       <c r="E21">
         <v>100</v>
       </c>
       <c r="F21">
-        <v>1.4669040383157199</v>
+        <v>0.98300967183719501</v>
       </c>
       <c r="G21">
-        <v>53.759938691445498</v>
+        <v>99.655139381166705</v>
       </c>
       <c r="I21">
         <v>100</v>
       </c>
       <c r="J21">
-        <v>1.3575516422381999</v>
+        <v>1.09738167496368</v>
       </c>
       <c r="K21">
-        <v>46.968100392757897</v>
+        <v>99.521026918287106</v>
       </c>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.2">

--- a/RS-IBCF-2016/readme/ibcf.xlsx
+++ b/RS-IBCF-2016/readme/ibcf.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="exp2" sheetId="2" r:id="rId1"/>
-    <sheet name="exp1" sheetId="1" r:id="rId2"/>
+    <sheet name="exp3" sheetId="3" r:id="rId2"/>
+    <sheet name="exp1" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="47">
   <si>
     <t>neighbourhoodSize</t>
   </si>
@@ -67,6 +68,105 @@
   </si>
   <si>
     <t>maybe the threshold is so high</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> | DeviationPredictor | CosineMetric</t>
+  </si>
+  <si>
+    <t>RMSE: 1,092697</t>
+  </si>
+  <si>
+    <t>RMSE (true rating = 1): 1,997122</t>
+  </si>
+  <si>
+    <t>RMSE (true rating = 2): 1,402574</t>
+  </si>
+  <si>
+    <t>RMSE (true rating = 3): 0,854021</t>
+  </si>
+  <si>
+    <t>RMSE (true rating = 4): 0,774813</t>
+  </si>
+  <si>
+    <t>RMSE (true rating = 5): 1,239617</t>
+  </si>
+  <si>
+    <t>coverage: 99,20%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> | DeviationPredictor | PearsonMetric</t>
+  </si>
+  <si>
+    <t>RMSE: 1,342428</t>
+  </si>
+  <si>
+    <t>RMSE (true rating = 1): 2,193794</t>
+  </si>
+  <si>
+    <t>RMSE (true rating = 2): 1,564951</t>
+  </si>
+  <si>
+    <t>RMSE (true rating = 3): 1,001627</t>
+  </si>
+  <si>
+    <t>RMSE (true rating = 4): 1,009170</t>
+  </si>
+  <si>
+    <t>RMSE (true rating = 5): 1,589067</t>
+  </si>
+  <si>
+    <t>coverage: 44,19%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> | DeviationPredictor | PearsonSignifianceWeightMetric</t>
+  </si>
+  <si>
+    <t>RMSE: 1,116123</t>
+  </si>
+  <si>
+    <t>RMSE (true rating = 1): 2,139186</t>
+  </si>
+  <si>
+    <t>RMSE (true rating = 2): 1,458923</t>
+  </si>
+  <si>
+    <t>RMSE (true rating = 3): 0,794626</t>
+  </si>
+  <si>
+    <t>RMSE (true rating = 4): 0,732007</t>
+  </si>
+  <si>
+    <t>RMSE (true rating = 5): 1,321695</t>
+  </si>
+  <si>
+    <t>coverage: 96,78%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> | DeviationPredictor | JaccardMetric</t>
+  </si>
+  <si>
+    <t>RMSE: 1,202419</t>
+  </si>
+  <si>
+    <t>RMSE (true rating = 1): 2,256613</t>
+  </si>
+  <si>
+    <t>RMSE (true rating = 2): 1,553739</t>
+  </si>
+  <si>
+    <t>RMSE (true rating = 3): 0,938123</t>
+  </si>
+  <si>
+    <t>RMSE (true rating = 4): 0,888473</t>
+  </si>
+  <si>
+    <t>RMSE (true rating = 5): 1,407479</t>
+  </si>
+  <si>
+    <t>coverage: 24,65%</t>
+  </si>
+  <si>
+    <t>synthese</t>
   </si>
 </sst>
 </file>
@@ -5536,7 +5636,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
@@ -5813,6 +5913,235 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="7" max="7" width="46.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="str">
+        <f>A1</f>
+        <v xml:space="preserve"> | DeviationPredictor | CosineMetric</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" t="str">
+        <f>A8</f>
+        <v>coverage: 99,20%</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" t="str">
+        <f>A2</f>
+        <v>RMSE: 1,092697</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" t="str">
+        <f>A9</f>
+        <v xml:space="preserve"> | DeviationPredictor | PearsonMetric</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" t="str">
+        <f>A16</f>
+        <v>coverage: 44,19%</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" t="str">
+        <f>A10</f>
+        <v>RMSE: 1,342428</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" t="str">
+        <f>A17</f>
+        <v xml:space="preserve"> | DeviationPredictor | PearsonSignifianceWeightMetric</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" t="str">
+        <f>A24</f>
+        <v>coverage: 96,78%</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" t="str">
+        <f>A10</f>
+        <v>RMSE: 1,342428</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" t="str">
+        <f>A25</f>
+        <v xml:space="preserve"> | DeviationPredictor | JaccardMetric</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" t="str">
+        <f>A32</f>
+        <v>coverage: 24,65%</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" t="str">
+        <f>A26</f>
+        <v>RMSE: 1,202419</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K37"/>
   <sheetViews>

--- a/RS-IBCF-2016/readme/ibcf.xlsx
+++ b/RS-IBCF-2016/readme/ibcf.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="50">
   <si>
     <t>neighbourhoodSize</t>
   </si>
@@ -70,12 +70,6 @@
     <t>maybe the threshold is so high</t>
   </si>
   <si>
-    <t xml:space="preserve"> | DeviationPredictor | CosineMetric</t>
-  </si>
-  <si>
-    <t>RMSE: 1,092697</t>
-  </si>
-  <si>
     <t>RMSE (true rating = 1): 1,997122</t>
   </si>
   <si>
@@ -92,12 +86,6 @@
   </si>
   <si>
     <t>coverage: 99,20%</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> | DeviationPredictor | PearsonMetric</t>
-  </si>
-  <si>
-    <t>RMSE: 1,342428</t>
   </si>
   <si>
     <t>RMSE (true rating = 1): 2,193794</t>
@@ -118,12 +106,6 @@
     <t>coverage: 44,19%</t>
   </si>
   <si>
-    <t xml:space="preserve"> | DeviationPredictor | PearsonSignifianceWeightMetric</t>
-  </si>
-  <si>
-    <t>RMSE: 1,116123</t>
-  </si>
-  <si>
     <t>RMSE (true rating = 1): 2,139186</t>
   </si>
   <si>
@@ -140,12 +122,6 @@
   </si>
   <si>
     <t>coverage: 96,78%</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> | DeviationPredictor | JaccardMetric</t>
-  </si>
-  <si>
-    <t>RMSE: 1,202419</t>
   </si>
   <si>
     <t>RMSE (true rating = 1): 2,256613</t>
@@ -167,6 +143,39 @@
   </si>
   <si>
     <t>synthese</t>
+  </si>
+  <si>
+    <t>RMSE</t>
+  </si>
+  <si>
+    <t>1,092697</t>
+  </si>
+  <si>
+    <t>1,342428</t>
+  </si>
+  <si>
+    <t>1,116123</t>
+  </si>
+  <si>
+    <t>1,202419</t>
+  </si>
+  <si>
+    <t>Metric</t>
+  </si>
+  <si>
+    <t>CosineMetric</t>
+  </si>
+  <si>
+    <t>PearsonMetric</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RMSE: </t>
+  </si>
+  <si>
+    <t>PearsonSignifianceWeightMetric</t>
+  </si>
+  <si>
+    <t>JaccardMetric</t>
   </si>
 </sst>
 </file>
@@ -5914,230 +5923,301 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="7" max="7" width="46.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="G1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+      <c r="I1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>47</v>
+      </c>
+      <c r="B2" t="s">
+        <v>40</v>
       </c>
       <c r="G2" t="str">
         <f>A1</f>
-        <v xml:space="preserve"> | DeviationPredictor | CosineMetric</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+        <v>CosineMetric</v>
+      </c>
+      <c r="I2" t="str">
+        <f>A1</f>
+        <v>CosineMetric</v>
+      </c>
+      <c r="J2" t="str">
+        <f>B2</f>
+        <v>1,092697</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G3" t="str">
         <f>A8</f>
         <v>coverage: 99,20%</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I3" t="str">
+        <f>A9</f>
+        <v>PearsonMetric</v>
+      </c>
+      <c r="J3" t="str">
+        <f>B10</f>
+        <v>1,342428</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G4" t="str">
         <f>A2</f>
-        <v>RMSE: 1,092697</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+        <v xml:space="preserve">RMSE: </v>
+      </c>
+      <c r="I4" t="str">
+        <f>A17</f>
+        <v>PearsonSignifianceWeightMetric</v>
+      </c>
+      <c r="J4" t="str">
+        <f>B18</f>
+        <v>1,116123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G5" t="str">
         <f>A9</f>
-        <v xml:space="preserve"> | DeviationPredictor | PearsonMetric</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+        <v>PearsonMetric</v>
+      </c>
+      <c r="I5" t="str">
+        <f>A25</f>
+        <v>JaccardMetric</v>
+      </c>
+      <c r="J5" t="str">
+        <f>B26</f>
+        <v>1,202419</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G6" t="str">
         <f>A16</f>
         <v>coverage: 44,19%</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G7" t="str">
         <f>A10</f>
-        <v>RMSE: 1,342428</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+        <v xml:space="preserve">RMSE: </v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G8" t="str">
         <f>A17</f>
-        <v xml:space="preserve"> | DeviationPredictor | PearsonSignifianceWeightMetric</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+        <v>PearsonSignifianceWeightMetric</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="G9" t="str">
         <f>A24</f>
         <v>coverage: 96,78%</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I9" t="str">
+        <f>I2</f>
+        <v>CosineMetric</v>
+      </c>
+      <c r="J9" t="str">
+        <f>I3</f>
+        <v>PearsonMetric</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>47</v>
+      </c>
+      <c r="B10" t="s">
+        <v>41</v>
       </c>
       <c r="G10" t="str">
         <f>A10</f>
-        <v>RMSE: 1,342428</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+        <v xml:space="preserve">RMSE: </v>
+      </c>
+      <c r="I10" t="str">
+        <f>J2</f>
+        <v>1,092697</v>
+      </c>
+      <c r="J10" t="str">
+        <f>J3</f>
+        <v>1,342428</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G11" t="str">
         <f>A25</f>
-        <v xml:space="preserve"> | DeviationPredictor | JaccardMetric</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+        <v>JaccardMetric</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G12" t="str">
         <f>A32</f>
         <v>coverage: 24,65%</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G13" t="str">
         <f>A26</f>
-        <v>RMSE: 1,202419</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+        <v xml:space="preserve">RMSE: </v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <ignoredErrors>
+    <ignoredError sqref="I3" formula="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 

--- a/RS-IBCF-2016/readme/ibcf.xlsx
+++ b/RS-IBCF-2016/readme/ibcf.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="44">
   <si>
     <t>neighbourhoodSize</t>
   </si>
@@ -85,9 +85,6 @@
     <t>RMSE (true rating = 5): 1,239617</t>
   </si>
   <si>
-    <t>coverage: 99,20%</t>
-  </si>
-  <si>
     <t>RMSE (true rating = 1): 2,193794</t>
   </si>
   <si>
@@ -101,9 +98,6 @@
   </si>
   <si>
     <t>RMSE (true rating = 5): 1,589067</t>
-  </si>
-  <si>
-    <t>coverage: 44,19%</t>
   </si>
   <si>
     <t>RMSE (true rating = 1): 2,139186</t>
@@ -121,9 +115,6 @@
     <t>RMSE (true rating = 5): 1,321695</t>
   </si>
   <si>
-    <t>coverage: 96,78%</t>
-  </si>
-  <si>
     <t>RMSE (true rating = 1): 2,256613</t>
   </si>
   <si>
@@ -139,28 +130,10 @@
     <t>RMSE (true rating = 5): 1,407479</t>
   </si>
   <si>
-    <t>coverage: 24,65%</t>
-  </si>
-  <si>
     <t>synthese</t>
   </si>
   <si>
     <t>RMSE</t>
-  </si>
-  <si>
-    <t>1,092697</t>
-  </si>
-  <si>
-    <t>1,342428</t>
-  </si>
-  <si>
-    <t>1,116123</t>
-  </si>
-  <si>
-    <t>1,202419</t>
-  </si>
-  <si>
-    <t>Metric</t>
   </si>
   <si>
     <t>CosineMetric</t>
@@ -176,6 +149,15 @@
   </si>
   <si>
     <t>JaccardMetric</t>
+  </si>
+  <si>
+    <t>michael</t>
+  </si>
+  <si>
+    <t>Coverage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">coverage: </t>
   </si>
 </sst>
 </file>
@@ -1388,6 +1370,744 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'exp3'!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RMSE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="fr-FR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'exp3'!$I$2:$I$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>CosineMetric</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>PearsonMetric</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>PearsonSignifianceWeightMetric</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>JaccardMetric</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'exp3'!$J$2:$J$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.09269670288217</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.34242830804724</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.11612349179624</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.20241944947996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="75"/>
+        <c:axId val="-2059919952"/>
+        <c:axId val="-2058808576"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2059919952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2058808576"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2058808576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2059919952"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:gradFill>
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="accent1">
+              <a:lumMod val="5000"/>
+              <a:lumOff val="95000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="74000">
+            <a:schemeClr val="accent1">
+              <a:lumMod val="45000"/>
+              <a:lumOff val="55000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="83000">
+            <a:schemeClr val="accent1">
+              <a:lumMod val="45000"/>
+              <a:lumOff val="55000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="accent1">
+              <a:lumMod val="30000"/>
+              <a:lumOff val="70000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="1"/>
+      </a:gradFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'exp3'!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Coverage</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="fr-FR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'exp3'!$I$2:$I$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>CosineMetric</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>PearsonMetric</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>PearsonSignifianceWeightMetric</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>JaccardMetric</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'exp3'!$K$2:$K$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>99.1953252227224</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44.1900565188236</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>96.78130089088989</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24.647954784941</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="75"/>
+        <c:axId val="-2057633392"/>
+        <c:axId val="-2037314160"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2057633392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2037314160"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2037314160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2057633392"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
       <c:tx>
         <c:rich>
           <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
@@ -2200,7 +2920,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -3182,6 +3902,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -4215,7 +5015,7 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -4242,8 +5042,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -4344,7 +5144,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -4376,6 +5176,1012 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
@@ -4730,7 +6536,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5316,6 +7122,71 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>622300</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>3517900</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Graphique 11"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="14" name="Graphique 13"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5923,10 +7794,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J32"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5935,26 +7806,29 @@
     <col min="9" max="9" width="30.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="G1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>38</v>
       </c>
-      <c r="I1" t="s">
-        <v>44</v>
-      </c>
-      <c r="J1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" t="s">
-        <v>40</v>
+      <c r="B2">
+        <v>1.0926967028821699</v>
       </c>
       <c r="G2" t="str">
         <f>A1</f>
@@ -5964,46 +7838,64 @@
         <f>A1</f>
         <v>CosineMetric</v>
       </c>
-      <c r="J2" t="str">
+      <c r="J2">
         <f>B2</f>
-        <v>1,092697</v>
+        <v>1.0926967028821699</v>
+      </c>
+      <c r="K2">
+        <f>B8</f>
+        <v>99.195325222722403</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>14</v>
       </c>
       <c r="G3" t="str">
         <f>A8</f>
-        <v>coverage: 99,20%</v>
+        <v xml:space="preserve">coverage: </v>
+      </c>
+      <c r="H3">
+        <v>100</v>
       </c>
       <c r="I3" t="str">
         <f>A9</f>
         <v>PearsonMetric</v>
       </c>
-      <c r="J3" t="str">
+      <c r="J3">
         <f>B10</f>
-        <v>1,342428</v>
+        <v>1.3424283080472399</v>
+      </c>
+      <c r="K3">
+        <f>B16</f>
+        <v>44.190056518823603</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>15</v>
       </c>
-      <c r="G4" t="str">
-        <f>A2</f>
-        <v xml:space="preserve">RMSE: </v>
+      <c r="G4">
+        <f>B2</f>
+        <v>1.0926967028821699</v>
+      </c>
+      <c r="H4">
+        <v>0.9</v>
       </c>
       <c r="I4" t="str">
         <f>A17</f>
         <v>PearsonSignifianceWeightMetric</v>
       </c>
-      <c r="J4" t="str">
+      <c r="J4">
         <f>B18</f>
-        <v>1,116123</v>
+        <v>1.1161234917962399</v>
+      </c>
+      <c r="K4">
+        <f>B24</f>
+        <v>96.781300890889895</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -6015,201 +7907,219 @@
         <f>A25</f>
         <v>JaccardMetric</v>
       </c>
-      <c r="J5" t="str">
+      <c r="J5">
         <f>B26</f>
-        <v>1,202419</v>
+        <v>1.20241944947996</v>
+      </c>
+      <c r="K5">
+        <f>B32</f>
+        <v>24.647954784941</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>17</v>
       </c>
       <c r="G6" t="str">
         <f>A16</f>
-        <v>coverage: 44,19%</v>
+        <v xml:space="preserve">coverage: </v>
+      </c>
+      <c r="H6">
+        <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>18</v>
       </c>
-      <c r="G7" t="str">
-        <f>A10</f>
-        <v xml:space="preserve">RMSE: </v>
+      <c r="G7">
+        <f>B10</f>
+        <v>1.3424283080472399</v>
+      </c>
+      <c r="H7">
+        <v>1.2</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>43</v>
+      </c>
+      <c r="B8">
+        <v>99.195325222722403</v>
       </c>
       <c r="G8" t="str">
         <f>A17</f>
         <v>PearsonSignifianceWeightMetric</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G9" t="str">
         <f>A24</f>
-        <v>coverage: 96,78%</v>
-      </c>
-      <c r="I9" t="str">
-        <f>I2</f>
-        <v>CosineMetric</v>
-      </c>
-      <c r="J9" t="str">
-        <f>I3</f>
-        <v>PearsonMetric</v>
+        <v xml:space="preserve">coverage: </v>
+      </c>
+      <c r="H9">
+        <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>47</v>
-      </c>
-      <c r="B10" t="s">
-        <v>41</v>
-      </c>
-      <c r="G10" t="str">
-        <f>A10</f>
-        <v xml:space="preserve">RMSE: </v>
-      </c>
-      <c r="I10" t="str">
-        <f>J2</f>
-        <v>1,092697</v>
-      </c>
-      <c r="J10" t="str">
-        <f>J3</f>
-        <v>1,342428</v>
+        <v>38</v>
+      </c>
+      <c r="B10">
+        <v>1.3424283080472399</v>
+      </c>
+      <c r="G10">
+        <f>B10</f>
+        <v>1.3424283080472399</v>
+      </c>
+      <c r="H10">
+        <v>1.2</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G11" t="str">
         <f>A25</f>
         <v>JaccardMetric</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G12" t="str">
         <f>A32</f>
-        <v>coverage: 24,65%</v>
+        <v xml:space="preserve">coverage: </v>
+      </c>
+      <c r="H12">
+        <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13">
+        <f>B26</f>
+        <v>1.20241944947996</v>
+      </c>
+      <c r="H13">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>22</v>
       </c>
-      <c r="G13" t="str">
-        <f>A26</f>
-        <v xml:space="preserve">RMSE: </v>
-      </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>43</v>
+      </c>
+      <c r="B16">
+        <v>44.190056518823603</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>47</v>
-      </c>
-      <c r="B18" t="s">
-        <v>42</v>
+        <v>38</v>
+      </c>
+      <c r="B18">
+        <v>1.1161234917962399</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>31</v>
+        <v>43</v>
+      </c>
+      <c r="B24">
+        <v>96.781300890889895</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>47</v>
-      </c>
-      <c r="B26" t="s">
-        <v>43</v>
+        <v>38</v>
+      </c>
+      <c r="B26">
+        <v>1.20241944947996</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>37</v>
+        <v>43</v>
+      </c>
+      <c r="B32">
+        <v>24.647954784941</v>
       </c>
     </row>
   </sheetData>
@@ -6218,6 +8128,7 @@
   <ignoredErrors>
     <ignoredError sqref="I3" formula="1"/>
   </ignoredErrors>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/RS-IBCF-2016/readme/ibcf.xlsx
+++ b/RS-IBCF-2016/readme/ibcf.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="69">
   <si>
     <t>neighbourhoodSize</t>
   </si>
@@ -115,21 +115,6 @@
     <t>RMSE (true rating = 5): 1,321695</t>
   </si>
   <si>
-    <t>RMSE (true rating = 1): 2,256613</t>
-  </si>
-  <si>
-    <t>RMSE (true rating = 2): 1,553739</t>
-  </si>
-  <si>
-    <t>RMSE (true rating = 3): 0,938123</t>
-  </si>
-  <si>
-    <t>RMSE (true rating = 4): 0,888473</t>
-  </si>
-  <si>
-    <t>RMSE (true rating = 5): 1,407479</t>
-  </si>
-  <si>
     <t>synthese</t>
   </si>
   <si>
@@ -145,12 +130,6 @@
     <t xml:space="preserve">RMSE: </t>
   </si>
   <si>
-    <t>PearsonSignifianceWeightMetric</t>
-  </si>
-  <si>
-    <t>JaccardMetric</t>
-  </si>
-  <si>
     <t>michael</t>
   </si>
   <si>
@@ -158,6 +137,102 @@
   </si>
   <si>
     <t xml:space="preserve">coverage: </t>
+  </si>
+  <si>
+    <t>PearsonSignifianceWeightMetric | N = 50</t>
+  </si>
+  <si>
+    <t>JaccardMetric | T = 50</t>
+  </si>
+  <si>
+    <t>RMSE (true rating = 1): 2,161960</t>
+  </si>
+  <si>
+    <t>RMSE (true rating = 2): 1,487284</t>
+  </si>
+  <si>
+    <t>RMSE (true rating = 3): 0,825830</t>
+  </si>
+  <si>
+    <t>RMSE (true rating = 4): 0,750886</t>
+  </si>
+  <si>
+    <t>RMSE (true rating = 5): 1,328613</t>
+  </si>
+  <si>
+    <t>PearsonSignifianceWeightMetric | N = 100</t>
+  </si>
+  <si>
+    <t>RMSE (true rating = 1): 2,117729</t>
+  </si>
+  <si>
+    <t>RMSE (true rating = 2): 1,457734</t>
+  </si>
+  <si>
+    <t>RMSE (true rating = 3): 0,788831</t>
+  </si>
+  <si>
+    <t>RMSE (true rating = 4): 0,721840</t>
+  </si>
+  <si>
+    <t>RMSE (true rating = 5): 1,314374</t>
+  </si>
+  <si>
+    <t>JaccardMetric | T = 70</t>
+  </si>
+  <si>
+    <t>RMSE (true rating = 1): 2,137059</t>
+  </si>
+  <si>
+    <t>RMSE (true rating = 2): 1,483162</t>
+  </si>
+  <si>
+    <t>RMSE (true rating = 3): 0,818661</t>
+  </si>
+  <si>
+    <t>RMSE (true rating = 4): 0,743148</t>
+  </si>
+  <si>
+    <t>RMSE (true rating = 5): 1,319522</t>
+  </si>
+  <si>
+    <t>PearsonSignifianceWeightMetric | N = 1</t>
+  </si>
+  <si>
+    <t>PearsonSignifianceWeightMetric | N = 5</t>
+  </si>
+  <si>
+    <t>RMSE (true rating = 1): 2,252582</t>
+  </si>
+  <si>
+    <t>RMSE (true rating = 2): 1,515007</t>
+  </si>
+  <si>
+    <t>RMSE (true rating = 3): 0,903550</t>
+  </si>
+  <si>
+    <t>RMSE (true rating = 4): 0,890430</t>
+  </si>
+  <si>
+    <t>RMSE (true rating = 5): 1,508005</t>
+  </si>
+  <si>
+    <t>JaccardMetric | T = 100</t>
+  </si>
+  <si>
+    <t>RMSE (true rating = 1): 2,144711</t>
+  </si>
+  <si>
+    <t>RMSE (true rating = 2): 1,485964</t>
+  </si>
+  <si>
+    <t>RMSE (true rating = 3): 0,821971</t>
+  </si>
+  <si>
+    <t>RMSE (true rating = 4): 0,741385</t>
+  </si>
+  <si>
+    <t>RMSE (true rating = 5): 1,322755</t>
   </si>
 </sst>
 </file>
@@ -1491,9 +1566,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'exp3'!$I$2:$I$5</c:f>
+              <c:f>'exp3'!$I$2:$I$11</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>CosineMetric</c:v>
                 </c:pt>
@@ -1501,20 +1576,38 @@
                   <c:v>PearsonMetric</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>PearsonSignifianceWeightMetric</c:v>
+                  <c:v>PearsonSignifianceWeightMetric | N = 1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>JaccardMetric</c:v>
+                  <c:v>PearsonSignifianceWeightMetric | N = 5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>PearsonSignifianceWeightMetric | N = 50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>PearsonSignifianceWeightMetric | N = 100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>JaccardMetric | T = 50</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>JaccardMetric | T = 70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>JaccardMetric | T = 100</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>JaccardMetric | T = 70</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'exp3'!$J$2:$J$5</c:f>
+              <c:f>'exp3'!$J$2:$J$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>1.09269670288217</c:v>
                 </c:pt>
@@ -1522,10 +1615,28 @@
                   <c:v>1.34242830804724</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>1.34242830804724</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.25140828097761</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>1.11612349179624</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.20241944947996</c:v>
+                <c:pt idx="5">
+                  <c:v>1.10798810063673</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.13422154422872</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.12542686764531</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.1275135580916</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.12542686764531</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1629,6 +1740,7 @@
         <c:axId val="-2058808576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0.95"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1903,9 +2015,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'exp3'!$I$2:$I$5</c:f>
+              <c:f>'exp3'!$I$2:$I$11</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>CosineMetric</c:v>
                 </c:pt>
@@ -1913,20 +2025,38 @@
                   <c:v>PearsonMetric</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>PearsonSignifianceWeightMetric</c:v>
+                  <c:v>PearsonSignifianceWeightMetric | N = 1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>JaccardMetric</c:v>
+                  <c:v>PearsonSignifianceWeightMetric | N = 5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>PearsonSignifianceWeightMetric | N = 50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>PearsonSignifianceWeightMetric | N = 100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>JaccardMetric | T = 50</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>JaccardMetric | T = 70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>JaccardMetric | T = 100</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>JaccardMetric | T = 70</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'exp3'!$K$2:$K$5</c:f>
+              <c:f>'exp3'!$K$2:$K$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>99.1953252227224</c:v>
                 </c:pt>
@@ -1934,10 +2064,28 @@
                   <c:v>44.1900565188236</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>44.1900565188236</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>73.8480697384807</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>96.78130089088989</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>24.647954784941</c:v>
+                <c:pt idx="5">
+                  <c:v>97.2698534342369</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>95.3348021841172</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>95.1144745665293</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>95.01867995018679</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>95.1144745665293</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2010,6 +2158,8 @@
         <c:axId val="-2037314160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="105.0"/>
+          <c:min val="43.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -7126,15 +7276,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>622300</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>3517900</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1828800</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7155,16 +7305,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>2095500</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7794,38 +7944,39 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:M80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="G3" workbookViewId="0">
+      <selection sqref="A1:B72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="34.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="46.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="30.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="34.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" t="s">
         <v>34</v>
       </c>
-      <c r="H1" t="s">
-        <v>41</v>
-      </c>
       <c r="J1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" t="s">
         <v>35</v>
       </c>
-      <c r="K1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B2">
         <v>1.0926967028821699</v>
@@ -7846,8 +7997,11 @@
         <f>B8</f>
         <v>99.195325222722403</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -7870,8 +8024,12 @@
         <f>B16</f>
         <v>44.190056518823603</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M3">
+        <f>M2+8</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -7884,18 +8042,22 @@
       </c>
       <c r="I4" t="str">
         <f>A17</f>
-        <v>PearsonSignifianceWeightMetric</v>
+        <v>PearsonSignifianceWeightMetric | N = 1</v>
       </c>
       <c r="J4">
         <f>B18</f>
-        <v>1.1161234917962399</v>
+        <v>1.3424283080472399</v>
       </c>
       <c r="K4">
         <f>B24</f>
-        <v>96.781300890889895</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+        <v>44.190056518823603</v>
+      </c>
+      <c r="M4">
+        <f t="shared" ref="M4:M15" si="0">M3+8</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -7905,18 +8067,22 @@
       </c>
       <c r="I5" t="str">
         <f>A25</f>
-        <v>JaccardMetric</v>
+        <v>PearsonSignifianceWeightMetric | N = 5</v>
       </c>
       <c r="J5">
         <f>B26</f>
-        <v>1.20241944947996</v>
+        <v>1.2514082809776099</v>
       </c>
       <c r="K5">
         <f>B32</f>
-        <v>24.647954784941</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+        <v>73.848069738480703</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -7927,8 +8093,24 @@
       <c r="H6">
         <v>60</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I6" t="str">
+        <f>A33</f>
+        <v>PearsonSignifianceWeightMetric | N = 50</v>
+      </c>
+      <c r="J6">
+        <f>B34</f>
+        <v>1.1161234917962399</v>
+      </c>
+      <c r="K6">
+        <f>B40</f>
+        <v>96.781300890889895</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -7939,22 +8121,54 @@
       <c r="H7">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I7" t="str">
+        <f>A41</f>
+        <v>PearsonSignifianceWeightMetric | N = 100</v>
+      </c>
+      <c r="J7">
+        <f>B42</f>
+        <v>1.10798810063673</v>
+      </c>
+      <c r="K7">
+        <f>B48</f>
+        <v>97.269853434236893</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B8">
         <v>99.195325222722403</v>
       </c>
       <c r="G8" t="str">
         <f>A17</f>
-        <v>PearsonSignifianceWeightMetric</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+        <v>PearsonSignifianceWeightMetric | N = 1</v>
+      </c>
+      <c r="I8" t="str">
+        <f>A49</f>
+        <v>JaccardMetric | T = 50</v>
+      </c>
+      <c r="J8">
+        <f>B50</f>
+        <v>1.13422154422872</v>
+      </c>
+      <c r="K8">
+        <f>B56</f>
+        <v>95.334802184117194</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G9" t="str">
         <f>A24</f>
@@ -7963,10 +8177,26 @@
       <c r="H9">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I9" t="str">
+        <f>A57</f>
+        <v>JaccardMetric | T = 70</v>
+      </c>
+      <c r="J9">
+        <f>B58</f>
+        <v>1.1254268676453101</v>
+      </c>
+      <c r="K9">
+        <f>B64</f>
+        <v>95.114474566529296</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B10">
         <v>1.3424283080472399</v>
@@ -7978,17 +8208,49 @@
       <c r="H10">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I10" t="str">
+        <f>A65</f>
+        <v>JaccardMetric | T = 100</v>
+      </c>
+      <c r="J10">
+        <f>B66</f>
+        <v>1.1275135580916</v>
+      </c>
+      <c r="K10">
+        <f>B72</f>
+        <v>95.018679950186794</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>19</v>
       </c>
       <c r="G11" t="str">
         <f>A25</f>
-        <v>JaccardMetric</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+        <v>PearsonSignifianceWeightMetric | N = 5</v>
+      </c>
+      <c r="I11" t="str">
+        <f>A73</f>
+        <v>JaccardMetric | T = 70</v>
+      </c>
+      <c r="J11">
+        <f>B74</f>
+        <v>1.1254268676453101</v>
+      </c>
+      <c r="K11">
+        <f>B80</f>
+        <v>95.114474566529296</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -7999,32 +8261,48 @@
       <c r="H12">
         <v>100</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M12">
+        <f t="shared" si="0"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>21</v>
       </c>
       <c r="G13">
         <f>B26</f>
-        <v>1.20241944947996</v>
+        <v>1.2514082809776099</v>
       </c>
       <c r="H13">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M13">
+        <f t="shared" si="0"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M14">
+        <f t="shared" si="0"/>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M15">
+        <f t="shared" si="0"/>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B16">
         <v>44.190056518823603</v>
@@ -8032,94 +8310,370 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B18">
-        <v>1.1161234917962399</v>
+        <v>1.3424283080472399</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B24">
-        <v>96.781300890889895</v>
+        <v>44.190056518823603</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B26">
-        <v>1.20241944947996</v>
+        <v>1.2514082809776099</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>32</v>
+        <v>61</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32">
+        <v>73.848069738480703</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>1.1161234917962399</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>36</v>
+      </c>
+      <c r="B40">
+        <v>96.781300890889895</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>33</v>
+      </c>
+      <c r="B42">
+        <v>1.10798810063673</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>36</v>
+      </c>
+      <c r="B48">
+        <v>97.269853434236893</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>33</v>
+      </c>
+      <c r="B50">
+        <v>1.13422154422872</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
         <v>43</v>
       </c>
-      <c r="B32">
-        <v>24.647954784941</v>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>36</v>
+      </c>
+      <c r="B56">
+        <v>95.334802184117194</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>33</v>
+      </c>
+      <c r="B58">
+        <v>1.1254268676453101</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>36</v>
+      </c>
+      <c r="B64">
+        <v>95.114474566529296</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>33</v>
+      </c>
+      <c r="B66">
+        <v>1.1275135580916</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>36</v>
+      </c>
+      <c r="B72">
+        <v>95.018679950186794</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>33</v>
+      </c>
+      <c r="B74">
+        <v>1.1254268676453101</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>36</v>
+      </c>
+      <c r="B80">
+        <v>95.114474566529296</v>
       </c>
     </row>
   </sheetData>

--- a/RS-IBCF-2016/readme/ibcf.xlsx
+++ b/RS-IBCF-2016/readme/ibcf.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="all graph" sheetId="12" r:id="rId1"/>
@@ -153,9 +153,6 @@
     <t>RMSE (true rating = 5): 1,056136</t>
   </si>
   <si>
-    <t>Perason with Jaccard weighted N = 50</t>
-  </si>
-  <si>
     <t>NaN</t>
   </si>
   <si>
@@ -192,21 +189,6 @@
     <t>Pearson similarity metric</t>
   </si>
   <si>
-    <t>Pearson Signifiance Weight similarity metric | N = 1</t>
-  </si>
-  <si>
-    <t>Pearson Signifiance Weight similarity metric | N = 5</t>
-  </si>
-  <si>
-    <t>Pearson Signifiance Weight similarity metric | N = 50</t>
-  </si>
-  <si>
-    <t>Pearson Signifiance Weight similarity metric | N = 100</t>
-  </si>
-  <si>
-    <t>Pearson Signifiance Weight similarity metric | N = 200</t>
-  </si>
-  <si>
     <t>Jaccard similarity metric</t>
   </si>
   <si>
@@ -236,16 +218,35 @@
   <si>
     <t>Experiment 3</t>
   </si>
+  <si>
+    <t>Pearson Signifiance Weighting similarity metric   N = 1</t>
+  </si>
+  <si>
+    <t>Pearson Signifiance Weighting similarity metric   N = 5</t>
+  </si>
+  <si>
+    <t>Pearson Signifiance Weighting similarity metric   N = 50</t>
+  </si>
+  <si>
+    <t>Pearson Signifiance Weighting similarity metric   N = 200</t>
+  </si>
+  <si>
+    <t>Pearson with Jaccard weighted  N = 50</t>
+  </si>
+  <si>
+    <t>Pearson Signifiance Weighting similarity metric   N = 100</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0.000\ _€_-;\-* #,##0.000\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
     <numFmt numFmtId="168" formatCode="0.0%"/>
     <numFmt numFmtId="169" formatCode="0.000%"/>
+    <numFmt numFmtId="178" formatCode="0.0000"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -352,7 +353,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -376,6 +377,8 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Lien hypertexte" xfId="3" builtinId="8" hidden="1"/>
@@ -2533,101 +2536,8 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
+          <c:idx val="0"/>
           <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'exp2'!#REF!</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>#REF!</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'exp2'!#REF!</c:f>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'exp2'!$E$1:$E$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.15</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.35</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.449999999999999</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.499999999999999</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.549999999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="2"/>
           <c:tx>
             <c:strRef>
               <c:f>'exp2'!$I$1</c:f>
@@ -2950,10 +2860,6 @@
         <c:idx val="1"/>
         <c:delete val="1"/>
       </c:legendEntry>
-      <c:legendEntry>
-        <c:idx val="2"/>
-        <c:delete val="1"/>
-      </c:legendEntry>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -3264,65 +3170,8 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
+          <c:idx val="0"/>
           <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'exp2'!#REF!</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>#REF!</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'exp2'!#REF!</c:f>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'exp2'!#REF!</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="2"/>
           <c:tx>
             <c:strRef>
               <c:f>'exp2'!$H$1</c:f>
@@ -3634,10 +3483,6 @@
       <c:legendPos val="b"/>
       <c:legendEntry>
         <c:idx val="1"/>
-        <c:delete val="1"/>
-      </c:legendEntry>
-      <c:legendEntry>
-        <c:idx val="2"/>
         <c:delete val="1"/>
       </c:legendEntry>
       <c:layout/>
@@ -4023,22 +3868,22 @@
                   <c:v>Pearson similarity metric</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Pearson Signifiance Weight similarity metric | N = 1</c:v>
+                  <c:v>Pearson Signifiance Weighting similarity metric   N = 1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Pearson Signifiance Weight similarity metric | N = 5</c:v>
+                  <c:v>Pearson Signifiance Weighting similarity metric   N = 5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Pearson Signifiance Weight similarity metric | N = 50</c:v>
+                  <c:v>Pearson Signifiance Weighting similarity metric   N = 50</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Pearson Signifiance Weight similarity metric | N = 100</c:v>
+                  <c:v>Pearson Signifiance Weighting similarity metric   N = 100</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>Jaccard similarity metric</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Perason with Jaccard weighted N = 50</c:v>
+                  <c:v>Pearson with Jaccard weighted  N = 50</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4047,7 +3892,7 @@
             <c:numRef>
               <c:f>'exp3'!$G$3:$G$10</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>99.3677555321391</c:v>
@@ -4114,7 +3959,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="t" anchorCtr="0"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -4184,7 +4029,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -4197,7 +4042,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="fr-FR"/>
+                  <a:rPr lang="fr-FR" sz="1100"/>
                   <a:t>Coverage</a:t>
                 </a:r>
               </a:p>
@@ -4217,7 +4062,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -4233,7 +4078,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4352,7 +4197,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> e</a:t>
+              <a:t> </a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
@@ -4621,22 +4466,22 @@
                   <c:v>Pearson similarity metric</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Pearson Signifiance Weight similarity metric | N = 1</c:v>
+                  <c:v>Pearson Signifiance Weighting similarity metric   N = 1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Pearson Signifiance Weight similarity metric | N = 5</c:v>
+                  <c:v>Pearson Signifiance Weighting similarity metric   N = 5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Pearson Signifiance Weight similarity metric | N = 50</c:v>
+                  <c:v>Pearson Signifiance Weighting similarity metric   N = 50</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Pearson Signifiance Weight similarity metric | N = 100</c:v>
+                  <c:v>Pearson Signifiance Weighting similarity metric   N = 100</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>Jaccard similarity metric</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Perason with Jaccard weighted N = 50</c:v>
+                  <c:v>Pearson with Jaccard weighted  N = 50</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4645,7 +4490,7 @@
             <c:numRef>
               <c:f>'exp3'!$F$3:$F$10</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>0.917691093541251</c:v>
@@ -4781,7 +4626,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -4794,7 +4639,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="fr-FR"/>
+                  <a:rPr lang="fr-FR" sz="1100"/>
                   <a:t>RMSE</a:t>
                 </a:r>
               </a:p>
@@ -4814,7 +4659,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -4830,7 +4675,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -9317,8 +9162,8 @@
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
@@ -9341,8 +9186,8 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>206374</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
@@ -9371,16 +9216,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>512234</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>448734</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>101599</xdr:rowOff>
+      <xdr:rowOff>12699</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>118534</xdr:colOff>
+      <xdr:colOff>660400</xdr:colOff>
       <xdr:row>69</xdr:row>
-      <xdr:rowOff>148166</xdr:rowOff>
+      <xdr:rowOff>59266</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9401,16 +9246,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>728133</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>766232</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>59266</xdr:rowOff>
+      <xdr:rowOff>8466</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>817033</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>215899</xdr:colOff>
       <xdr:row>69</xdr:row>
-      <xdr:rowOff>118533</xdr:rowOff>
+      <xdr:rowOff>67733</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9431,16 +9276,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>143933</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>793044</xdr:colOff>
       <xdr:row>77</xdr:row>
-      <xdr:rowOff>173568</xdr:rowOff>
+      <xdr:rowOff>60680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>715433</xdr:colOff>
-      <xdr:row>102</xdr:row>
-      <xdr:rowOff>97367</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>531988</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>182035</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9461,16 +9306,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>203200</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>372532</xdr:colOff>
       <xdr:row>77</xdr:row>
-      <xdr:rowOff>148167</xdr:rowOff>
+      <xdr:rowOff>63501</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>102</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>575733</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>176390</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9787,8 +9632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB187"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="Z84" sqref="Z84"/>
+    <sheetView tabSelected="1" topLeftCell="A72" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="H110" sqref="H110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9797,7 +9642,7 @@
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
       <c r="C1" s="15" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D1" s="15"/>
       <c r="E1" s="15"/>
@@ -10842,7 +10687,7 @@
     <row r="37" spans="1:28" ht="37" x14ac:dyDescent="0.45">
       <c r="A37" s="5"/>
       <c r="B37" s="16" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C37" s="16"/>
       <c r="D37" s="16"/>
@@ -12010,7 +11855,7 @@
     <row r="76" spans="1:28" ht="34" x14ac:dyDescent="0.4">
       <c r="A76" s="5"/>
       <c r="B76" s="15" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C76" s="15"/>
       <c r="D76" s="15"/>
@@ -15303,37 +15148,37 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E1" t="s">
         <v>0</v>
       </c>
       <c r="F1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I1" t="s">
         <v>0</v>
       </c>
       <c r="J1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M1" t="s">
         <v>0</v>
       </c>
       <c r="N1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
@@ -16098,7 +15943,7 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="I23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J23" s="7">
         <f>ABS(J21-J11/J21)</f>
@@ -16111,10 +15956,10 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D25" t="s">
+        <v>43</v>
+      </c>
+      <c r="G25" t="s">
         <v>44</v>
-      </c>
-      <c r="G25" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
@@ -16123,14 +15968,14 @@
         <v>3.8311972712618186E-2</v>
       </c>
       <c r="E26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G26" s="9">
         <f>ABS(F2-B2)/F2</f>
         <v>7.5719139713246509E-4</v>
       </c>
       <c r="H26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
@@ -16353,7 +16198,7 @@
         <v>3.6098522931882697E-2</v>
       </c>
       <c r="C1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -16366,7 +16211,7 @@
         <v>4.8757052579637201E-2</v>
       </c>
       <c r="C3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -16388,7 +16233,7 @@
         <v>4.3851152456523199E-2</v>
       </c>
       <c r="C6" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="E6" s="3"/>
     </row>
@@ -68243,7 +68088,7 @@
     </row>
     <row r="10375" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10375" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10376" spans="1:1" x14ac:dyDescent="0.2">
@@ -68263,7 +68108,7 @@
     </row>
     <row r="10379" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10379" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10380" spans="1:1" x14ac:dyDescent="0.2">
@@ -68283,7 +68128,7 @@
     </row>
     <row r="10383" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10383" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10384" spans="1:1" x14ac:dyDescent="0.2">
@@ -68313,7 +68158,7 @@
     </row>
     <row r="10389" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10389" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10390" spans="1:1" x14ac:dyDescent="0.2">
@@ -68413,7 +68258,7 @@
     </row>
     <row r="10409" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10409" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10410" spans="1:1" x14ac:dyDescent="0.2">
@@ -68488,7 +68333,7 @@
     </row>
     <row r="10424" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10424" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10425" spans="1:1" x14ac:dyDescent="0.2">
@@ -68503,7 +68348,7 @@
     </row>
     <row r="10427" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10427" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10428" spans="1:1" x14ac:dyDescent="0.2">
@@ -68523,12 +68368,12 @@
     </row>
     <row r="10431" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10431" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10432" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10432" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10433" spans="1:1" x14ac:dyDescent="0.2">
@@ -68558,7 +68403,7 @@
     </row>
     <row r="10438" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10438" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -68595,16 +68440,16 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -68917,8 +68762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -68926,22 +68771,23 @@
     <col min="1" max="1" width="34.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="44.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.33203125" customWidth="1"/>
+    <col min="7" max="7" width="13.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B1" s="4"/>
       <c r="E1" s="4" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -68961,11 +68807,11 @@
         <f>A2</f>
         <v>Cosine similarity metric</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="17">
         <f>B3</f>
         <v>0.917691093541251</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="18">
         <f>B9</f>
         <v>99.3677555321391</v>
       </c>
@@ -68978,11 +68824,11 @@
         <f>A10</f>
         <v>Pearson similarity metric</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="17">
         <f>B11</f>
         <v>1.1749799805074199</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="18">
         <f>B17</f>
         <v>62.1994443912252</v>
       </c>
@@ -68993,13 +68839,13 @@
       </c>
       <c r="E5" t="str">
         <f>A18</f>
-        <v>Pearson Signifiance Weight similarity metric | N = 1</v>
-      </c>
-      <c r="F5">
+        <v>Pearson Signifiance Weighting similarity metric   N = 1</v>
+      </c>
+      <c r="F5" s="17">
         <f>B19</f>
         <v>1.1749799805074199</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="18">
         <f>B25</f>
         <v>62.1994443912252</v>
       </c>
@@ -69010,13 +68856,13 @@
       </c>
       <c r="E6" t="str">
         <f>A26</f>
-        <v>Pearson Signifiance Weight similarity metric | N = 5</v>
-      </c>
-      <c r="F6">
+        <v>Pearson Signifiance Weighting similarity metric   N = 5</v>
+      </c>
+      <c r="F6" s="17">
         <f>B27</f>
         <v>1.07342366401019</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="18">
         <f>B33</f>
         <v>84.337580227991097</v>
       </c>
@@ -69027,13 +68873,13 @@
       </c>
       <c r="E7" t="str">
         <f>A34</f>
-        <v>Pearson Signifiance Weight similarity metric | N = 50</v>
-      </c>
-      <c r="F7">
+        <v>Pearson Signifiance Weighting similarity metric   N = 50</v>
+      </c>
+      <c r="F7" s="17">
         <f>B35</f>
         <v>0.93551314539300401</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="18">
         <f>B41</f>
         <v>99.300699300699307</v>
       </c>
@@ -69044,13 +68890,13 @@
       </c>
       <c r="E8" t="str">
         <f>A42</f>
-        <v>Pearson Signifiance Weight similarity metric | N = 100</v>
-      </c>
-      <c r="F8">
+        <v>Pearson Signifiance Weighting similarity metric   N = 100</v>
+      </c>
+      <c r="F8" s="17">
         <f>B43</f>
         <v>0.92600917878934896</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="18">
         <f>B49</f>
         <v>99.492288533384396</v>
       </c>
@@ -69066,28 +68912,28 @@
         <f>A58</f>
         <v>Jaccard similarity metric</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="17">
         <f>B59</f>
         <v>0.92149995852599198</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="18">
         <f>B65</f>
         <v>98.563080754861502</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E10" t="str">
         <f>A66</f>
-        <v>Perason with Jaccard weighted N = 50</v>
-      </c>
-      <c r="F10">
+        <v>Pearson with Jaccard weighted  N = 50</v>
+      </c>
+      <c r="F10" s="17">
         <f>B67</f>
         <v>0.92493499999999995</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="18">
         <f>B73</f>
         <v>98.563080754861502</v>
       </c>
@@ -69135,7 +68981,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -69181,7 +69027,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -69227,7 +69073,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
@@ -69273,7 +69119,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
@@ -69319,7 +69165,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
@@ -69365,7 +69211,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
@@ -69411,7 +69257,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">

--- a/RS-IBCF-2016/readme/ibcf.xlsx
+++ b/RS-IBCF-2016/readme/ibcf.xlsx
@@ -9632,7 +9632,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="40" zoomScaleNormal="40" zoomScalePageLayoutView="40" workbookViewId="0">
       <selection activeCell="H110" sqref="H110"/>
     </sheetView>
   </sheetViews>
